--- a/TME.xlsx
+++ b/TME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78EE08-AAF3-5D4B-8719-DE4F0D822C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03200F4D-E6E2-EA4C-BFB1-7F557D84D5A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22820" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52240" yWindow="-5940" windowWidth="26100" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
   <si>
     <t>Q117</t>
   </si>
@@ -187,9 +187,6 @@
     <t>31/12/2018</t>
   </si>
   <si>
-    <t>R&amp;D y/y</t>
-  </si>
-  <si>
     <t>S&amp;M y/y</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>Net Income USD</t>
   </si>
   <si>
-    <t>ADS</t>
-  </si>
-  <si>
     <t>Price ADS</t>
   </si>
   <si>
@@ -343,15 +337,6 @@
     <t>Paying users/ MAU</t>
   </si>
   <si>
-    <t>96 (Spotify)</t>
-  </si>
-  <si>
-    <t>207 (Spotify)</t>
-  </si>
-  <si>
-    <t>46% (Spotify)</t>
-  </si>
-  <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
@@ -392,6 +377,27 @@
   </si>
   <si>
     <t>OE y/y</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,10 +608,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -639,6 +641,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -673,7 +678,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -688,8 +693,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4889500" y="1638300"/>
-          <a:ext cx="0" cy="9766300"/>
+          <a:off x="4910015" y="1647092"/>
+          <a:ext cx="0" cy="10974754"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -720,15 +725,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -744,8 +749,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15760700" y="165100"/>
-          <a:ext cx="0" cy="9918700"/>
+          <a:off x="17456639" y="166077"/>
+          <a:ext cx="0" cy="9645161"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1035,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FI71"/>
+  <dimension ref="A1:FI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1051,45 +1056,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
-        <v>72</v>
+      <c r="A1" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3">
-        <v>12.39</v>
-      </c>
-      <c r="D2" s="59">
-        <v>43969</v>
+        <v>25.72</v>
+      </c>
+      <c r="D2" s="57">
+        <v>44253</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I2" s="15"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7">
-        <f>'Reports RMB'!R21/2</f>
-        <v>1675.4709375</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>111</v>
+        <f>'Reports RMB'!T22</f>
+        <v>1680.9549689999999</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>37</v>
@@ -1098,35 +1103,34 @@
         <v>0.02</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9">
         <f>C2*C3</f>
-        <v>20759.084915625001</v>
-      </c>
-      <c r="D4" s="60"/>
+        <v>43234.161802679999</v>
+      </c>
+      <c r="D4" s="58"/>
       <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="6">
-        <f>8%</f>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I4" s="25"/>
       <c r="L4" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.15">
@@ -1134,72 +1138,72 @@
         <v>32</v>
       </c>
       <c r="C5" s="7">
-        <f>'Reports RMB'!R33/Main!C9</f>
-        <v>3426.8635724331925</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>111</v>
+        <f>'Reports RMB'!T32/C9</f>
+        <v>4697.2222222222217</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>114</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="10">
         <f>NPV(F4,F28:FI28)</f>
-        <v>199155.59929906175</v>
+        <v>438462.45928704966</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9">
         <f>C4-C5</f>
-        <v>17332.221343191806</v>
-      </c>
-      <c r="D6" s="60"/>
+        <v>38536.93958045778</v>
+      </c>
+      <c r="D6" s="58"/>
       <c r="E6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="12">
         <f>F5/C9+C5</f>
-        <v>31437.496385240753</v>
+        <v>72361.181988742217</v>
       </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="53">
         <f>C6/C3</f>
-        <v>10.34468635370872</v>
-      </c>
-      <c r="D7" s="60"/>
+        <v>22.925622810338226</v>
+      </c>
+      <c r="D7" s="58"/>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="50">
         <f>F6/C3</f>
-        <v>18.763379108293694</v>
+        <v>43.047662384311153</v>
       </c>
       <c r="G7" s="25">
         <f>F7/C2-1</f>
-        <v>0.5143970224611536</v>
+        <v>0.67370382520649907</v>
       </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1208,13 +1212,13 @@
     <row r="9" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="52">
-        <v>7.11</v>
-      </c>
-      <c r="D9" s="59">
-        <v>43970</v>
+        <v>6.48</v>
+      </c>
+      <c r="D9" s="57">
+        <v>44253</v>
       </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.15">
@@ -1300,7 +1304,7 @@
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7">
         <f>2144</f>
@@ -1436,7 +1440,7 @@
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7">
         <v>2217</v>
@@ -1693,7 +1697,7 @@
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="7">
         <f>'Reports RMB'!E6</f>
@@ -1712,29 +1716,29 @@
         <v>52.3</v>
       </c>
       <c r="F15" s="15">
-        <f>E15*1.25</f>
-        <v>65.375</v>
+        <f>'Reports RMB'!U6</f>
+        <v>68.58720000000001</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" ref="G15:J15" si="1">F15*1.25</f>
-        <v>81.71875</v>
+        <f>F15*1.3</f>
+        <v>89.163360000000011</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="1"/>
-        <v>102.1484375</v>
+        <f t="shared" ref="H15:J15" si="1">G15*1.3</f>
+        <v>115.91236800000001</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="1"/>
-        <v>127.685546875</v>
+        <v>150.68607840000001</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
-        <v>159.60693359375</v>
+        <v>195.89190192000004</v>
       </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="9">
         <f>SUM(B12:B13)/B15</f>
@@ -1753,24 +1757,24 @@
         <v>486.30975143403447</v>
       </c>
       <c r="F16" s="15">
-        <f>E16*0.95</f>
-        <v>461.99426386233273</v>
+        <f>SUM('Reports RMB'!R7:U7)</f>
+        <v>481.67159909898066</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" ref="G16:J16" si="2">F16*0.95</f>
-        <v>438.89455066921607</v>
+        <v>457.58801914403159</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="2"/>
-        <v>416.94982313575525</v>
+        <v>434.70861818682999</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="2"/>
-        <v>396.10233197896747</v>
+        <v>412.97318727748848</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="2"/>
-        <v>376.29721538001905</v>
+        <v>392.32452791361402</v>
       </c>
     </row>
     <row r="17" spans="1:165" x14ac:dyDescent="0.15">
@@ -1799,65 +1803,65 @@
         <f>E15*E16</f>
         <v>25434</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f>F15*F16</f>
-        <v>30202.875000000004</v>
+        <v>33036.506301721609</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" ref="G18:J18" si="3">G15*G16</f>
-        <v>35865.9140625</v>
+        <f>G15*G16</f>
+        <v>40800.085282626183</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="3"/>
-        <v>42590.77294921875</v>
+        <f t="shared" ref="H18:I18" si="3">H15*H16</f>
+        <v>50388.105324043339</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="3"/>
-        <v>50576.542877197266</v>
+        <v>62229.31007519352</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="3"/>
-        <v>60059.644666671746</v>
+        <f>J15*J16</f>
+        <v>76853.19794286399</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" ref="K18:T18" si="4">J18*1.1</f>
-        <v>66065.609133338919</v>
+        <v>84538.517737150396</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="4"/>
-        <v>72672.170046672822</v>
+        <v>92992.36951086545</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="4"/>
-        <v>79939.387051340105</v>
+        <v>102291.606461952</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>87933.325756474122</v>
+        <v>112520.76710814721</v>
       </c>
       <c r="O18" s="17">
         <f t="shared" si="4"/>
-        <v>96726.658332121544</v>
+        <v>123772.84381896193</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="4"/>
-        <v>106399.3241653337</v>
+        <v>136150.12820085813</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="4"/>
-        <v>117039.25658186708</v>
+        <v>149765.14102094396</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="4"/>
-        <v>128743.18224005381</v>
+        <v>164741.65512303836</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" si="4"/>
-        <v>141617.50046405921</v>
+        <v>181215.82063534221</v>
       </c>
       <c r="T18" s="17">
         <f t="shared" si="4"/>
-        <v>155779.25051046515</v>
+        <v>199337.40269887645</v>
       </c>
     </row>
     <row r="19" spans="1:165" x14ac:dyDescent="0.15">
@@ -1879,65 +1883,65 @@
         <f>SUM('Reports RMB'!N10:Q10)</f>
         <v>16761</v>
       </c>
-      <c r="F19" s="7">
-        <f t="shared" ref="F19:G19" si="5">F18-F20</f>
-        <v>19903.6875</v>
+      <c r="F19" s="15">
+        <f>SUM('Reports RMB'!R10:U10)</f>
+        <v>20229.907191366339</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="5"/>
-        <v>23635.62890625</v>
+        <f t="shared" ref="G19" si="5">G18-G20</f>
+        <v>24983.935381337425</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ref="H19:O19" si="6">H18-H20</f>
-        <v>28067.309326171875</v>
+        <v>30855.160195951725</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="6"/>
-        <v>33329.929824829102</v>
+        <v>38106.122842000375</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
-        <v>39579.291666984551</v>
+        <v>47061.061709870461</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>43537.220833683008</v>
+        <v>51767.167880857509</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="6"/>
-        <v>47890.942917051318</v>
+        <v>56943.884668943268</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="6"/>
-        <v>52680.037208756446</v>
+        <v>62638.273135837597</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="6"/>
-        <v>57948.040929632094</v>
+        <v>68902.100449421356</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" si="6"/>
-        <v>63742.845022595313</v>
+        <v>75792.310494363497</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" ref="P19:T19" si="7">P18-P20</f>
-        <v>70117.129524854856</v>
+        <v>83371.54154379986</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="7"/>
-        <v>77128.842477340339</v>
+        <v>91708.695698179858</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="7"/>
-        <v>84841.72672507439</v>
+        <v>100879.56526799784</v>
       </c>
       <c r="S19" s="7">
         <f t="shared" si="7"/>
-        <v>93325.899397581845</v>
+        <v>110967.52179479763</v>
       </c>
       <c r="T19" s="7">
         <f t="shared" si="7"/>
-        <v>102658.48933734003</v>
+        <v>122064.27397427741</v>
       </c>
     </row>
     <row r="20" spans="1:165" x14ac:dyDescent="0.15">
@@ -1945,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" ref="B20:E20" si="8">B18-B19</f>
+        <f t="shared" ref="B20:F20" si="8">B18-B19</f>
         <v>1232</v>
       </c>
       <c r="C20" s="9">
@@ -1960,65 +1964,65 @@
         <f t="shared" si="8"/>
         <v>8673</v>
       </c>
-      <c r="F20" s="7">
-        <f>F18*E37</f>
-        <v>10299.187500000002</v>
+      <c r="F20" s="9">
+        <f t="shared" si="8"/>
+        <v>12806.59911035527</v>
       </c>
       <c r="G20" s="7">
-        <f>G18*F37</f>
-        <v>12230.28515625</v>
+        <f>G18*F33</f>
+        <v>15816.149901288756</v>
       </c>
       <c r="H20" s="7">
-        <f>H18*G37</f>
-        <v>14523.463623046877</v>
+        <f>H18*G33</f>
+        <v>19532.945128091615</v>
       </c>
       <c r="I20" s="7">
-        <f>I18*H37</f>
-        <v>17246.613052368164</v>
+        <f>I18*H33</f>
+        <v>24123.187233193144</v>
       </c>
       <c r="J20" s="7">
-        <f>J18*I37</f>
-        <v>20480.352999687195</v>
+        <f>J18*I33</f>
+        <v>29792.136232993529</v>
       </c>
       <c r="K20" s="7">
-        <f>K18*J37</f>
-        <v>22528.388299655911</v>
+        <f>K18*J33</f>
+        <v>32771.349856292887</v>
       </c>
       <c r="L20" s="7">
-        <f>L18*K37</f>
-        <v>24781.227129621508</v>
+        <f>L18*K33</f>
+        <v>36048.484841922182</v>
       </c>
       <c r="M20" s="7">
-        <f>M18*L37</f>
-        <v>27259.349842583659</v>
+        <f>M18*L33</f>
+        <v>39653.333326114407</v>
       </c>
       <c r="N20" s="7">
-        <f>N18*M37</f>
-        <v>29985.284826842028</v>
+        <f>N18*M33</f>
+        <v>43618.666658725844</v>
       </c>
       <c r="O20" s="7">
-        <f>O18*N37</f>
-        <v>32983.813309526231</v>
+        <f>O18*N33</f>
+        <v>47980.533324598437</v>
       </c>
       <c r="P20" s="7">
-        <f>P18*O37</f>
-        <v>36282.194640478854</v>
+        <f>P18*O33</f>
+        <v>52778.58665705828</v>
       </c>
       <c r="Q20" s="7">
-        <f>Q18*P37</f>
-        <v>39910.414104526739</v>
+        <f>Q18*P33</f>
+        <v>58056.445322764113</v>
       </c>
       <c r="R20" s="7">
-        <f>R18*Q37</f>
-        <v>43901.455514979418</v>
+        <f>R18*Q33</f>
+        <v>63862.089855040525</v>
       </c>
       <c r="S20" s="7">
-        <f>S18*R37</f>
-        <v>48291.601066477371</v>
+        <f>S18*R33</f>
+        <v>70248.298840544579</v>
       </c>
       <c r="T20" s="7">
-        <f>T18*S37</f>
-        <v>53120.761173125116</v>
+        <f>T18*S33</f>
+        <v>77273.128724599039</v>
       </c>
     </row>
     <row r="21" spans="1:165" x14ac:dyDescent="0.15">
@@ -2040,65 +2044,65 @@
         <f>SUM('Reports RMB'!N12:Q12)</f>
         <v>2041</v>
       </c>
-      <c r="F21" s="7">
-        <f>E21*1.2</f>
-        <v>2449.1999999999998</v>
+      <c r="F21" s="15">
+        <f>SUM('Reports RMB'!R12:U12)</f>
+        <v>2540.75</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:J21" si="9">F21*1.2</f>
-        <v>2939.0399999999995</v>
+        <f>F21*1.25</f>
+        <v>3175.9375</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="9"/>
-        <v>3526.8479999999995</v>
+        <f t="shared" ref="H21:J21" si="9">G21*1.25</f>
+        <v>3969.921875</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="9"/>
-        <v>4232.217599999999</v>
+        <v>4962.40234375</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="9"/>
-        <v>5078.6611199999988</v>
+        <v>6203.0029296875</v>
       </c>
       <c r="K21" s="7">
         <f>J21*1.1</f>
-        <v>5586.5272319999995</v>
+        <v>6823.3032226562509</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" ref="L21:T21" si="10">K21*1.1</f>
-        <v>6145.1799552000002</v>
+        <v>7505.6335449218768</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="10"/>
-        <v>6759.6979507200012</v>
+        <v>8256.1968994140643</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="10"/>
-        <v>7435.6677457920023</v>
+        <v>9081.8165893554724</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="10"/>
-        <v>8179.234520371203</v>
+        <v>9989.99824829102</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="10"/>
-        <v>8997.157972408324</v>
+        <v>10988.998073120123</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="10"/>
-        <v>9896.8737696491571</v>
+        <v>12087.897880432136</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="10"/>
-        <v>10886.561146614074</v>
+        <v>13296.68766847535</v>
       </c>
       <c r="S21" s="7">
         <f t="shared" si="10"/>
-        <v>11975.217261275482</v>
+        <v>14626.356435322887</v>
       </c>
       <c r="T21" s="7">
         <f t="shared" si="10"/>
-        <v>13172.73898740303</v>
+        <v>16088.992078855177</v>
       </c>
     </row>
     <row r="22" spans="1:165" x14ac:dyDescent="0.15">
@@ -2120,65 +2124,65 @@
         <f>SUM('Reports RMB'!N13:Q13)</f>
         <v>2703</v>
       </c>
-      <c r="F22" s="7">
-        <f>E22*1.15</f>
-        <v>3108.45</v>
+      <c r="F22" s="15">
+        <f>SUM('Reports RMB'!R13:U13)</f>
+        <v>3016.7</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22:J22" si="11">F22*1.15</f>
-        <v>3574.7174999999993</v>
+        <f>F22*1.1</f>
+        <v>3318.37</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="11"/>
-        <v>4110.9251249999988</v>
+        <f t="shared" ref="H22:J22" si="11">G22*1.1</f>
+        <v>3650.2070000000003</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="11"/>
-        <v>4727.563893749998</v>
+        <v>4015.2277000000008</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="11"/>
-        <v>5436.698477812497</v>
+        <v>4416.7504700000009</v>
       </c>
       <c r="K22" s="7">
         <f>J22*1.05</f>
-        <v>5708.5334017031219</v>
+        <v>4637.5879935000012</v>
       </c>
       <c r="L22" s="7">
         <f t="shared" ref="L22:T22" si="12">K22*1.05</f>
-        <v>5993.9600717882786</v>
+        <v>4869.4673931750012</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="12"/>
-        <v>6293.6580753776925</v>
+        <v>5112.9407628337513</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="12"/>
-        <v>6608.3409791465774</v>
+        <v>5368.5878009754388</v>
       </c>
       <c r="O22" s="7">
         <f t="shared" si="12"/>
-        <v>6938.7580281039063</v>
+        <v>5637.0171910242107</v>
       </c>
       <c r="P22" s="7">
         <f t="shared" si="12"/>
-        <v>7285.6959295091019</v>
+        <v>5918.8680505754219</v>
       </c>
       <c r="Q22" s="7">
         <f t="shared" si="12"/>
-        <v>7649.9807259845575</v>
+        <v>6214.8114531041929</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="12"/>
-        <v>8032.4797622837859</v>
+        <v>6525.5520257594026</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="12"/>
-        <v>8434.1037503979751</v>
+        <v>6851.8296270473729</v>
       </c>
       <c r="T22" s="7">
         <f t="shared" si="12"/>
-        <v>8855.8089379178746</v>
+        <v>7194.4211083997416</v>
       </c>
     </row>
     <row r="23" spans="1:165" x14ac:dyDescent="0.15">
@@ -2198,68 +2202,68 @@
         <v>3972</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" ref="E23" si="14">SUM(E21:E22)</f>
+        <f t="shared" ref="E23:F23" si="14">SUM(E21:E22)</f>
         <v>4744</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="13"/>
-        <v>5557.65</v>
+      <c r="F23" s="9">
+        <f t="shared" si="14"/>
+        <v>5557.45</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="13"/>
-        <v>6513.7574999999988</v>
+        <v>6494.3074999999999</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="13"/>
-        <v>7637.7731249999979</v>
+        <v>7620.1288750000003</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="13"/>
-        <v>8959.781493749997</v>
+        <v>8977.6300437500013</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="13"/>
-        <v>10515.359597812496</v>
+        <v>10619.753399687501</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="13"/>
-        <v>11295.06063370312</v>
+        <v>11460.891216156251</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="13"/>
-        <v>12139.14002698828</v>
+        <v>12375.100938096879</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="13"/>
-        <v>13053.356026097694</v>
+        <v>13369.137662247816</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="13"/>
-        <v>14044.00872493858</v>
+        <v>14450.40439033091</v>
       </c>
       <c r="O23" s="7">
         <f t="shared" si="13"/>
-        <v>15117.992548475109</v>
+        <v>15627.01543931523</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" ref="P23:T23" si="15">SUM(P21:P22)</f>
-        <v>16282.853901917426</v>
+        <v>16907.866123695545</v>
       </c>
       <c r="Q23" s="7">
         <f t="shared" si="15"/>
-        <v>17546.854495633714</v>
+        <v>18302.709333536328</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="15"/>
-        <v>18919.040908897859</v>
+        <v>19822.239694234751</v>
       </c>
       <c r="S23" s="7">
         <f t="shared" si="15"/>
-        <v>20409.321011673455</v>
+        <v>21478.18606237026</v>
       </c>
       <c r="T23" s="7">
         <f t="shared" si="15"/>
-        <v>22028.547925320905</v>
+        <v>23283.413187254919</v>
       </c>
     </row>
     <row r="24" spans="1:165" x14ac:dyDescent="0.15">
@@ -2267,80 +2271,80 @@
         <v>10</v>
       </c>
       <c r="B24" s="9">
-        <f>B20-B23</f>
+        <f t="shared" ref="B24:T24" si="16">B20-B23</f>
         <v>84</v>
       </c>
       <c r="C24" s="9">
-        <f>C20-C23</f>
+        <f t="shared" si="16"/>
         <v>1376</v>
       </c>
       <c r="D24" s="9">
-        <f>D20-D23</f>
+        <f t="shared" si="16"/>
         <v>3305</v>
       </c>
       <c r="E24" s="9">
-        <f>E20-E23</f>
+        <f t="shared" si="16"/>
         <v>3929</v>
       </c>
-      <c r="F24" s="7">
-        <f>F20-F23</f>
-        <v>4741.5375000000022</v>
+      <c r="F24" s="9">
+        <f t="shared" si="16"/>
+        <v>7249.1491103552698</v>
       </c>
       <c r="G24" s="7">
-        <f>G20-G23</f>
-        <v>5716.5276562500012</v>
+        <f t="shared" si="16"/>
+        <v>9321.8424012887554</v>
       </c>
       <c r="H24" s="7">
-        <f>H20-H23</f>
-        <v>6885.6904980468789</v>
+        <f t="shared" si="16"/>
+        <v>11912.816253091614</v>
       </c>
       <c r="I24" s="7">
-        <f>I20-I23</f>
-        <v>8286.831558618167</v>
+        <f t="shared" si="16"/>
+        <v>15145.557189443143</v>
       </c>
       <c r="J24" s="7">
-        <f>J20-J23</f>
-        <v>9964.993401874699</v>
+        <f t="shared" si="16"/>
+        <v>19172.38283330603</v>
       </c>
       <c r="K24" s="7">
-        <f>K20-K23</f>
-        <v>11233.327665952791</v>
+        <f t="shared" si="16"/>
+        <v>21310.458640136636</v>
       </c>
       <c r="L24" s="7">
-        <f>L20-L23</f>
-        <v>12642.087102633228</v>
+        <f t="shared" si="16"/>
+        <v>23673.383903825303</v>
       </c>
       <c r="M24" s="7">
-        <f>M20-M23</f>
-        <v>14205.993816485965</v>
+        <f t="shared" si="16"/>
+        <v>26284.195663866591</v>
       </c>
       <c r="N24" s="7">
-        <f>N20-N23</f>
-        <v>15941.276101903448</v>
+        <f t="shared" si="16"/>
+        <v>29168.262268394934</v>
       </c>
       <c r="O24" s="7">
-        <f>O20-O23</f>
-        <v>17865.820761051124</v>
+        <f t="shared" si="16"/>
+        <v>32353.517885283207</v>
       </c>
       <c r="P24" s="7">
-        <f>P20-P23</f>
-        <v>19999.340738561426</v>
+        <f t="shared" si="16"/>
+        <v>35870.720533362735</v>
       </c>
       <c r="Q24" s="7">
-        <f>Q20-Q23</f>
-        <v>22363.559608893025</v>
+        <f t="shared" si="16"/>
+        <v>39753.735989227789</v>
       </c>
       <c r="R24" s="7">
-        <f>R20-R23</f>
-        <v>24982.414606081558</v>
+        <f t="shared" si="16"/>
+        <v>44039.85016080577</v>
       </c>
       <c r="S24" s="7">
-        <f>S20-S23</f>
-        <v>27882.280054803916</v>
+        <f t="shared" si="16"/>
+        <v>48770.11277817432</v>
       </c>
       <c r="T24" s="7">
-        <f>T20-T23</f>
-        <v>31092.213247804211</v>
+        <f t="shared" si="16"/>
+        <v>53989.71553734412</v>
       </c>
     </row>
     <row r="25" spans="1:165" x14ac:dyDescent="0.15">
@@ -2363,65 +2367,65 @@
         <f>SUM('Reports RMB'!N16:Q16)</f>
         <v>611</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" ref="F25:T25" si="16">E46*$F$3</f>
-        <v>463.74</v>
+      <c r="F25" s="15">
+        <f>SUM('Reports RMB'!R16:U16)</f>
+        <v>866</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="16"/>
-        <v>552.22971750000011</v>
+        <f>F42*$F$3</f>
+        <v>615.64497790190023</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="16"/>
-        <v>658.79859285375005</v>
+        <f>G42*$F$3</f>
+        <v>784.5822633481414</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="16"/>
-        <v>787.05490739906077</v>
+        <f>H42*$F$3</f>
+        <v>1000.4380381276173</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="16"/>
-        <v>941.31097732135356</v>
+        <f>I42*$F$3</f>
+        <v>1274.9199569963203</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="16"/>
-        <v>1126.7181517676863</v>
+        <f>J42*$F$3</f>
+        <v>1622.5241044314603</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="16"/>
-        <v>1336.8389306689346</v>
+        <f>K42*$F$3</f>
+        <v>2012.3848110891179</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="16"/>
-        <v>1574.4806732350714</v>
+        <f>L42*$F$3</f>
+        <v>2449.0428792426633</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="16"/>
-        <v>1842.7487395603289</v>
+        <f>M42*$F$3</f>
+        <v>2937.5079344755204</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="16"/>
-        <v>2145.0771618652134</v>
+        <f>N42*$F$3</f>
+        <v>3483.3060279243177</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="16"/>
-        <v>2485.2624265547911</v>
+        <f>O42*$F$3</f>
+        <v>4092.5320344488459</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="16"/>
-        <v>2867.5006803617666</v>
+        <f>P42*$F$3</f>
+        <v>4771.9073281016426</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="16"/>
-        <v>3296.4287052790983</v>
+        <f>Q42*$F$3</f>
+        <v>5528.8432644962431</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="16"/>
-        <v>3777.1690415722296</v>
+        <f>R42*$F$3</f>
+        <v>6371.5110527263769</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="16"/>
-        <v>4315.379676210624</v>
+        <f>S42*$F$3</f>
+        <v>7308.9186578516883</v>
       </c>
     </row>
     <row r="26" spans="1:165" x14ac:dyDescent="0.15">
@@ -2429,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="9">
-        <f t="shared" ref="B26:E26" si="17">B24+B25</f>
+        <f t="shared" ref="B26:F26" si="17">B24+B25</f>
         <v>114</v>
       </c>
       <c r="C26" s="9">
@@ -2444,65 +2448,65 @@
         <f t="shared" si="17"/>
         <v>4540</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" ref="F26:G26" si="18">F24+F25</f>
-        <v>5205.277500000002</v>
+      <c r="F26" s="9">
+        <f t="shared" si="17"/>
+        <v>8115.1491103552698</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="18"/>
-        <v>6268.7573737500015</v>
+        <f t="shared" ref="G26" si="18">G24+G25</f>
+        <v>9937.4873791906557</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" ref="H26" si="19">H24+H25</f>
-        <v>7544.489090900629</v>
+        <v>12697.398516439756</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" ref="I26" si="20">I24+I25</f>
-        <v>9073.8864660172276</v>
+        <v>16145.99522757076</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" ref="J26" si="21">J24+J25</f>
-        <v>10906.304379196052</v>
+        <v>20447.30279030235</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" ref="K26" si="22">K24+K25</f>
-        <v>12360.045817720478</v>
+        <v>22932.982744568097</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" ref="L26" si="23">L24+L25</f>
-        <v>13978.926033302163</v>
+        <v>25685.768714914422</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" ref="M26" si="24">M24+M25</f>
-        <v>15780.474489721037</v>
+        <v>28733.238543109255</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" ref="N26" si="25">N24+N25</f>
-        <v>17784.024841463775</v>
+        <v>32105.770202870455</v>
       </c>
       <c r="O26" s="7">
         <f t="shared" ref="O26:P26" si="26">O24+O25</f>
-        <v>20010.897922916338</v>
+        <v>35836.823913207525</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="26"/>
-        <v>22484.603165116219</v>
+        <v>39963.252567811578</v>
       </c>
       <c r="Q26" s="7">
         <f t="shared" ref="Q26:T26" si="27">Q24+Q25</f>
-        <v>25231.06028925479</v>
+        <v>44525.643317329435</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="27"/>
-        <v>28278.843311360655</v>
+        <v>49568.693425302015</v>
       </c>
       <c r="S26" s="7">
         <f t="shared" si="27"/>
-        <v>31659.449096376145</v>
+        <v>55141.623830900695</v>
       </c>
       <c r="T26" s="7">
         <f t="shared" si="27"/>
-        <v>35407.592924014833</v>
+        <v>61298.634195195809</v>
       </c>
     </row>
     <row r="27" spans="1:165" x14ac:dyDescent="0.15">
@@ -2524,65 +2528,65 @@
         <f>SUM('Reports RMB'!N18:Q18)</f>
         <v>563</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" ref="F27:O27" si="28">F26*0.15</f>
-        <v>780.79162500000029</v>
+      <c r="F27" s="15">
+        <f>SUM('Reports RMB'!R18:U18)</f>
+        <v>519.90021526025635</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="28"/>
-        <v>940.31360606250018</v>
+        <f t="shared" ref="G27:O27" si="28">G26*0.15</f>
+        <v>1490.6231068785983</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="28"/>
-        <v>1131.6733636350943</v>
+        <v>1904.6097774659634</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="28"/>
-        <v>1361.0829699025842</v>
+        <v>2421.8992841356139</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="28"/>
-        <v>1635.9456568794078</v>
+        <v>3067.0954185453525</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="28"/>
-        <v>1854.0068726580716</v>
+        <v>3439.9474116852143</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="28"/>
-        <v>2096.8389049953244</v>
+        <v>3852.8653072371631</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="28"/>
-        <v>2367.0711734581555</v>
+        <v>4309.9857814663883</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="28"/>
-        <v>2667.6037262195664</v>
+        <v>4815.8655304305685</v>
       </c>
       <c r="O27" s="7">
         <f t="shared" si="28"/>
-        <v>3001.6346884374507</v>
+        <v>5375.5235869811286</v>
       </c>
       <c r="P27" s="7">
         <f t="shared" ref="P27:T27" si="29">P26*0.15</f>
-        <v>3372.690474767433</v>
+        <v>5994.4878851717367</v>
       </c>
       <c r="Q27" s="7">
         <f t="shared" si="29"/>
-        <v>3784.6590433882184</v>
+        <v>6678.8464975994148</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="29"/>
-        <v>4241.8264967040977</v>
+        <v>7435.3040137953021</v>
       </c>
       <c r="S27" s="7">
         <f t="shared" si="29"/>
-        <v>4748.9173644564216</v>
+        <v>8271.2435746351039</v>
       </c>
       <c r="T27" s="7">
         <f t="shared" si="29"/>
-        <v>5311.1389386022247</v>
+        <v>9194.7951292793714</v>
       </c>
     </row>
     <row r="28" spans="1:165" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2607,643 +2611,643 @@
       </c>
       <c r="F28" s="16">
         <f t="shared" si="31"/>
-        <v>4424.4858750000021</v>
+        <v>7595.2488950950137</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="31"/>
-        <v>5328.4437676875013</v>
+        <v>8446.8642723120574</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" ref="H28:O28" si="32">H26-H27</f>
-        <v>6412.8157272655344</v>
+        <v>10792.788738973793</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="32"/>
-        <v>7712.8034961146432</v>
+        <v>13724.095943435146</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="32"/>
-        <v>9270.3587223166433</v>
+        <v>17380.207371756998</v>
       </c>
       <c r="K28" s="16">
         <f t="shared" si="32"/>
-        <v>10506.038945062406</v>
+        <v>19493.035332882882</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="32"/>
-        <v>11882.087128306839</v>
+        <v>21832.903407677259</v>
       </c>
       <c r="M28" s="16">
         <f t="shared" si="32"/>
-        <v>13413.40331626288</v>
+        <v>24423.252761642867</v>
       </c>
       <c r="N28" s="16">
         <f t="shared" si="32"/>
-        <v>15116.421115244209</v>
+        <v>27289.904672439887</v>
       </c>
       <c r="O28" s="16">
         <f t="shared" si="32"/>
-        <v>17009.263234478887</v>
+        <v>30461.300326226396</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" ref="P28:T28" si="33">P26-P27</f>
-        <v>19111.912690348785</v>
+        <v>33968.764682639841</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="33"/>
-        <v>21446.401245866571</v>
+        <v>37846.796819730022</v>
       </c>
       <c r="R28" s="16">
         <f t="shared" si="33"/>
-        <v>24037.016814656556</v>
+        <v>42133.389411506716</v>
       </c>
       <c r="S28" s="16">
         <f t="shared" si="33"/>
-        <v>26910.531731919724</v>
+        <v>46870.380256265591</v>
       </c>
       <c r="T28" s="16">
         <f t="shared" si="33"/>
-        <v>30096.453985412609</v>
+        <v>52103.839065916436</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" ref="U28:AU28" si="34">T28*($F$2+1)</f>
-        <v>29494.524905704355</v>
+        <v>51582.800675257269</v>
       </c>
       <c r="V28" s="16">
         <f t="shared" si="34"/>
-        <v>28904.634407590267</v>
+        <v>51066.972668504699</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="34"/>
-        <v>28326.541719438461</v>
+        <v>50556.302941819653</v>
       </c>
       <c r="X28" s="16">
         <f t="shared" si="34"/>
-        <v>27760.010885049691</v>
+        <v>50050.739912401456</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="34"/>
-        <v>27204.810667348698</v>
+        <v>49550.232513277442</v>
       </c>
       <c r="Z28" s="16">
         <f t="shared" si="34"/>
-        <v>26660.714454001725</v>
+        <v>49054.730188144669</v>
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="34"/>
-        <v>26127.50016492169</v>
+        <v>48564.182886263225</v>
       </c>
       <c r="AB28" s="16">
         <f t="shared" si="34"/>
-        <v>25604.950161623256</v>
+        <v>48078.541057400595</v>
       </c>
       <c r="AC28" s="16">
         <f t="shared" si="34"/>
-        <v>25092.851158390789</v>
+        <v>47597.75564682659</v>
       </c>
       <c r="AD28" s="16">
         <f t="shared" si="34"/>
-        <v>24590.994135222973</v>
+        <v>47121.778090358326</v>
       </c>
       <c r="AE28" s="16">
         <f t="shared" si="34"/>
-        <v>24099.174252518511</v>
+        <v>46650.56030945474</v>
       </c>
       <c r="AF28" s="16">
         <f t="shared" si="34"/>
-        <v>23617.190767468139</v>
+        <v>46184.054706360192</v>
       </c>
       <c r="AG28" s="16">
         <f t="shared" si="34"/>
-        <v>23144.846952118776</v>
+        <v>45722.214159296593</v>
       </c>
       <c r="AH28" s="16">
         <f t="shared" si="34"/>
-        <v>22681.950013076399</v>
+        <v>45264.992017703626</v>
       </c>
       <c r="AI28" s="16">
         <f t="shared" si="34"/>
-        <v>22228.311012814869</v>
+        <v>44812.342097526591</v>
       </c>
       <c r="AJ28" s="16">
         <f t="shared" si="34"/>
-        <v>21783.744792558573</v>
+        <v>44364.218676551325</v>
       </c>
       <c r="AK28" s="16">
         <f t="shared" si="34"/>
-        <v>21348.069896707402</v>
+        <v>43920.57648978581</v>
       </c>
       <c r="AL28" s="16">
         <f t="shared" si="34"/>
-        <v>20921.108498773254</v>
+        <v>43481.370724887951</v>
       </c>
       <c r="AM28" s="16">
         <f t="shared" si="34"/>
-        <v>20502.686328797787</v>
+        <v>43046.557017639068</v>
       </c>
       <c r="AN28" s="16">
         <f t="shared" si="34"/>
-        <v>20092.632602221831</v>
+        <v>42616.091447462677</v>
       </c>
       <c r="AO28" s="16">
         <f t="shared" si="34"/>
-        <v>19690.779950177395</v>
+        <v>42189.930532988052</v>
       </c>
       <c r="AP28" s="16">
         <f t="shared" si="34"/>
-        <v>19296.964351173847</v>
+        <v>41768.031227658168</v>
       </c>
       <c r="AQ28" s="16">
         <f t="shared" si="34"/>
-        <v>18911.02506415037</v>
+        <v>41350.350915381583</v>
       </c>
       <c r="AR28" s="16">
         <f t="shared" si="34"/>
-        <v>18532.804562867361</v>
+        <v>40936.847406227767</v>
       </c>
       <c r="AS28" s="16">
         <f t="shared" si="34"/>
-        <v>18162.148471610013</v>
+        <v>40527.47893216549</v>
       </c>
       <c r="AT28" s="16">
         <f t="shared" si="34"/>
-        <v>17798.905502177811</v>
+        <v>40122.204142843832</v>
       </c>
       <c r="AU28" s="16">
         <f t="shared" si="34"/>
-        <v>17442.927392134254</v>
+        <v>39720.982101415393</v>
       </c>
       <c r="AV28" s="16">
         <f t="shared" ref="AV28:CA28" si="35">AU28*($F$2+1)</f>
-        <v>17094.068844291567</v>
+        <v>39323.772280401237</v>
       </c>
       <c r="AW28" s="16">
         <f t="shared" si="35"/>
-        <v>16752.187467405736</v>
+        <v>38930.534557597224</v>
       </c>
       <c r="AX28" s="16">
         <f t="shared" si="35"/>
-        <v>16417.143718057621</v>
+        <v>38541.229212021251</v>
       </c>
       <c r="AY28" s="16">
         <f t="shared" si="35"/>
-        <v>16088.800843696468</v>
+        <v>38155.816919901037</v>
       </c>
       <c r="AZ28" s="16">
         <f t="shared" si="35"/>
-        <v>15767.024826822539</v>
+        <v>37774.258750702029</v>
       </c>
       <c r="BA28" s="16">
         <f t="shared" si="35"/>
-        <v>15451.684330286087</v>
+        <v>37396.51616319501</v>
       </c>
       <c r="BB28" s="16">
         <f t="shared" si="35"/>
-        <v>15142.650643680365</v>
+        <v>37022.551001563057</v>
       </c>
       <c r="BC28" s="16">
         <f t="shared" si="35"/>
-        <v>14839.797630806757</v>
+        <v>36652.325491547424</v>
       </c>
       <c r="BD28" s="16">
         <f t="shared" si="35"/>
-        <v>14543.001678190622</v>
+        <v>36285.802236631949</v>
       </c>
       <c r="BE28" s="16">
         <f t="shared" si="35"/>
-        <v>14252.141644626809</v>
+        <v>35922.944214265626</v>
       </c>
       <c r="BF28" s="16">
         <f t="shared" si="35"/>
-        <v>13967.098811734271</v>
+        <v>35563.71477212297</v>
       </c>
       <c r="BG28" s="16">
         <f t="shared" si="35"/>
-        <v>13687.756835499586</v>
+        <v>35208.07762440174</v>
       </c>
       <c r="BH28" s="16">
         <f t="shared" si="35"/>
-        <v>13414.001698789594</v>
+        <v>34855.996848157723</v>
       </c>
       <c r="BI28" s="16">
         <f t="shared" si="35"/>
-        <v>13145.721664813802</v>
+        <v>34507.436879676148</v>
       </c>
       <c r="BJ28" s="16">
         <f t="shared" si="35"/>
-        <v>12882.807231517525</v>
+        <v>34162.362510879386</v>
       </c>
       <c r="BK28" s="16">
         <f t="shared" si="35"/>
-        <v>12625.151086887174</v>
+        <v>33820.738885770588</v>
       </c>
       <c r="BL28" s="16">
         <f t="shared" si="35"/>
-        <v>12372.648065149429</v>
+        <v>33482.531496912881</v>
       </c>
       <c r="BM28" s="16">
         <f t="shared" si="35"/>
-        <v>12125.195103846441</v>
+        <v>33147.706181943751</v>
       </c>
       <c r="BN28" s="16">
         <f t="shared" si="35"/>
-        <v>11882.691201769512</v>
+        <v>32816.229120124313</v>
       </c>
       <c r="BO28" s="16">
         <f t="shared" si="35"/>
-        <v>11645.037377734121</v>
+        <v>32488.066828923071</v>
       </c>
       <c r="BP28" s="16">
         <f t="shared" si="35"/>
-        <v>11412.136630179439</v>
+        <v>32163.186160633839</v>
       </c>
       <c r="BQ28" s="16">
         <f t="shared" si="35"/>
-        <v>11183.89389757585</v>
+        <v>31841.554299027499</v>
       </c>
       <c r="BR28" s="16">
         <f t="shared" si="35"/>
-        <v>10960.216019624333</v>
+        <v>31523.138756037224</v>
       </c>
       <c r="BS28" s="16">
         <f t="shared" si="35"/>
-        <v>10741.011699231845</v>
+        <v>31207.907368476852</v>
       </c>
       <c r="BT28" s="16">
         <f t="shared" si="35"/>
-        <v>10526.191465247208</v>
+        <v>30895.828294792082</v>
       </c>
       <c r="BU28" s="16">
         <f t="shared" si="35"/>
-        <v>10315.667635942264</v>
+        <v>30586.870011844159</v>
       </c>
       <c r="BV28" s="16">
         <f t="shared" si="35"/>
-        <v>10109.354283223418</v>
+        <v>30281.001311725719</v>
       </c>
       <c r="BW28" s="16">
         <f t="shared" si="35"/>
-        <v>9907.1671975589488</v>
+        <v>29978.191298608461</v>
       </c>
       <c r="BX28" s="16">
         <f t="shared" si="35"/>
-        <v>9709.0238536077704</v>
+        <v>29678.409385622377</v>
       </c>
       <c r="BY28" s="16">
         <f t="shared" si="35"/>
-        <v>9514.8433765356149</v>
+        <v>29381.625291766151</v>
       </c>
       <c r="BZ28" s="16">
         <f t="shared" si="35"/>
-        <v>9324.546509004902</v>
+        <v>29087.809038848489</v>
       </c>
       <c r="CA28" s="16">
         <f t="shared" si="35"/>
-        <v>9138.0555788248039</v>
+        <v>28796.930948460005</v>
       </c>
       <c r="CB28" s="16">
         <f t="shared" ref="CB28:DG28" si="36">CA28*($F$2+1)</f>
-        <v>8955.2944672483081</v>
+        <v>28508.961638975405</v>
       </c>
       <c r="CC28" s="16">
         <f t="shared" si="36"/>
-        <v>8776.1885779033419</v>
+        <v>28223.872022585649</v>
       </c>
       <c r="CD28" s="16">
         <f t="shared" si="36"/>
-        <v>8600.664806345274</v>
+        <v>27941.633302359791</v>
       </c>
       <c r="CE28" s="16">
         <f t="shared" si="36"/>
-        <v>8428.6515102183675</v>
+        <v>27662.216969336194</v>
       </c>
       <c r="CF28" s="16">
         <f t="shared" si="36"/>
-        <v>8260.0784800140009</v>
+        <v>27385.594799642833</v>
       </c>
       <c r="CG28" s="16">
         <f t="shared" si="36"/>
-        <v>8094.8769104137209</v>
+        <v>27111.738851646405</v>
       </c>
       <c r="CH28" s="16">
         <f t="shared" si="36"/>
-        <v>7932.9793722054465</v>
+        <v>26840.621463129941</v>
       </c>
       <c r="CI28" s="16">
         <f t="shared" si="36"/>
-        <v>7774.3197847613374</v>
+        <v>26572.21524849864</v>
       </c>
       <c r="CJ28" s="16">
         <f t="shared" si="36"/>
-        <v>7618.8333890661106</v>
+        <v>26306.493096013652</v>
       </c>
       <c r="CK28" s="16">
         <f t="shared" si="36"/>
-        <v>7466.4567212847878</v>
+        <v>26043.428165053516</v>
       </c>
       <c r="CL28" s="16">
         <f t="shared" si="36"/>
-        <v>7317.1275868590919</v>
+        <v>25782.993883402982</v>
       </c>
       <c r="CM28" s="16">
         <f t="shared" si="36"/>
-        <v>7170.7850351219104</v>
+        <v>25525.163944568951</v>
       </c>
       <c r="CN28" s="16">
         <f t="shared" si="36"/>
-        <v>7027.3693344194717</v>
+        <v>25269.91230512326</v>
       </c>
       <c r="CO28" s="16">
         <f t="shared" si="36"/>
-        <v>6886.8219477310822</v>
+        <v>25017.213182072028</v>
       </c>
       <c r="CP28" s="16">
         <f t="shared" si="36"/>
-        <v>6749.0855087764603</v>
+        <v>24767.041050251308</v>
       </c>
       <c r="CQ28" s="16">
         <f t="shared" si="36"/>
-        <v>6614.1037986009305</v>
+        <v>24519.370639748795</v>
       </c>
       <c r="CR28" s="16">
         <f t="shared" si="36"/>
-        <v>6481.8217226289116</v>
+        <v>24274.176933351308</v>
       </c>
       <c r="CS28" s="16">
         <f t="shared" si="36"/>
-        <v>6352.1852881763334</v>
+        <v>24031.435164017796</v>
       </c>
       <c r="CT28" s="16">
         <f t="shared" si="36"/>
-        <v>6225.1415824128062</v>
+        <v>23791.120812377616</v>
       </c>
       <c r="CU28" s="16">
         <f t="shared" si="36"/>
-        <v>6100.6387507645495</v>
+        <v>23553.20960425384</v>
       </c>
       <c r="CV28" s="16">
         <f t="shared" si="36"/>
-        <v>5978.625975749258</v>
+        <v>23317.677508211302</v>
       </c>
       <c r="CW28" s="16">
         <f t="shared" si="36"/>
-        <v>5859.0534562342727</v>
+        <v>23084.500733129189</v>
       </c>
       <c r="CX28" s="16">
         <f t="shared" si="36"/>
-        <v>5741.8723871095872</v>
+        <v>22853.655725797897</v>
       </c>
       <c r="CY28" s="16">
         <f t="shared" si="36"/>
-        <v>5627.0349393673951</v>
+        <v>22625.119168539917</v>
       </c>
       <c r="CZ28" s="16">
         <f t="shared" si="36"/>
-        <v>5514.4942405800466</v>
+        <v>22398.867976854519</v>
       </c>
       <c r="DA28" s="16">
         <f t="shared" si="36"/>
-        <v>5404.2043557684456</v>
+        <v>22174.879297085972</v>
       </c>
       <c r="DB28" s="16">
         <f t="shared" si="36"/>
-        <v>5296.1202686530769</v>
+        <v>21953.130504115114</v>
       </c>
       <c r="DC28" s="16">
         <f t="shared" si="36"/>
-        <v>5190.1978632800156</v>
+        <v>21733.599199073964</v>
       </c>
       <c r="DD28" s="16">
         <f t="shared" si="36"/>
-        <v>5086.3939060144148</v>
+        <v>21516.263207083222</v>
       </c>
       <c r="DE28" s="16">
         <f t="shared" si="36"/>
-        <v>4984.6660278941263</v>
+        <v>21301.100575012391</v>
       </c>
       <c r="DF28" s="16">
         <f t="shared" si="36"/>
-        <v>4884.9727073362437</v>
+        <v>21088.089569262269</v>
       </c>
       <c r="DG28" s="16">
         <f t="shared" si="36"/>
-        <v>4787.273253189519</v>
+        <v>20877.208673569647</v>
       </c>
       <c r="DH28" s="16">
         <f t="shared" ref="DH28:DO28" si="37">DG28*($F$2+1)</f>
-        <v>4691.5277881257289</v>
+        <v>20668.436586833948</v>
       </c>
       <c r="DI28" s="16">
         <f t="shared" si="37"/>
-        <v>4597.6972323632144</v>
+        <v>20461.752220965609</v>
       </c>
       <c r="DJ28" s="16">
         <f t="shared" si="37"/>
-        <v>4505.7432877159499</v>
+        <v>20257.134698755952</v>
       </c>
       <c r="DK28" s="16">
         <f t="shared" si="37"/>
-        <v>4415.6284219616309</v>
+        <v>20054.563351768393</v>
       </c>
       <c r="DL28" s="16">
         <f t="shared" si="37"/>
-        <v>4327.3158535223984</v>
+        <v>19854.01771825071</v>
       </c>
       <c r="DM28" s="16">
         <f t="shared" si="37"/>
-        <v>4240.7695364519504</v>
+        <v>19655.477541068201</v>
       </c>
       <c r="DN28" s="16">
         <f t="shared" si="37"/>
-        <v>4155.9541457229116</v>
+        <v>19458.92276565752</v>
       </c>
       <c r="DO28" s="16">
         <f t="shared" si="37"/>
-        <v>4072.8350628084531</v>
+        <v>19264.333538000945</v>
       </c>
       <c r="DP28" s="16">
         <f>DO28*($F$2+1)</f>
-        <v>3991.3783615522839</v>
+        <v>19071.690202620935</v>
       </c>
       <c r="DQ28" s="16">
         <f t="shared" ref="DQ28:FI28" si="38">DP28*($F$2+1)</f>
-        <v>3911.5507943212383</v>
+        <v>18880.973300594727</v>
       </c>
       <c r="DR28" s="16">
         <f t="shared" si="38"/>
-        <v>3833.3197784348135</v>
+        <v>18692.163567588781</v>
       </c>
       <c r="DS28" s="16">
         <f t="shared" si="38"/>
-        <v>3756.6533828661172</v>
+        <v>18505.241931912893</v>
       </c>
       <c r="DT28" s="16">
         <f t="shared" si="38"/>
-        <v>3681.5203152087947</v>
+        <v>18320.189512593763</v>
       </c>
       <c r="DU28" s="16">
         <f t="shared" si="38"/>
-        <v>3607.8899089046186</v>
+        <v>18136.987617467825</v>
       </c>
       <c r="DV28" s="16">
         <f t="shared" si="38"/>
-        <v>3535.7321107265261</v>
+        <v>17955.617741293147</v>
       </c>
       <c r="DW28" s="16">
         <f t="shared" si="38"/>
-        <v>3465.0174685119955</v>
+        <v>17776.061563880216</v>
       </c>
       <c r="DX28" s="16">
         <f t="shared" si="38"/>
-        <v>3395.7171191417556</v>
+        <v>17598.300948241413</v>
       </c>
       <c r="DY28" s="16">
         <f t="shared" si="38"/>
-        <v>3327.8027767589206</v>
+        <v>17422.317938758999</v>
       </c>
       <c r="DZ28" s="16">
         <f t="shared" si="38"/>
-        <v>3261.246721223742</v>
+        <v>17248.094759371408</v>
       </c>
       <c r="EA28" s="16">
         <f t="shared" si="38"/>
-        <v>3196.0217867992669</v>
+        <v>17075.613811777694</v>
       </c>
       <c r="EB28" s="16">
         <f t="shared" si="38"/>
-        <v>3132.1013510632815</v>
+        <v>16904.857673659917</v>
       </c>
       <c r="EC28" s="16">
         <f t="shared" si="38"/>
-        <v>3069.4593240420159</v>
+        <v>16735.809096923316</v>
       </c>
       <c r="ED28" s="16">
         <f t="shared" si="38"/>
-        <v>3008.0701375611757</v>
+        <v>16568.451005954084</v>
       </c>
       <c r="EE28" s="16">
         <f t="shared" si="38"/>
-        <v>2947.908734809952</v>
+        <v>16402.766495894542</v>
       </c>
       <c r="EF28" s="16">
         <f t="shared" si="38"/>
-        <v>2888.950560113753</v>
+        <v>16238.738830935597</v>
       </c>
       <c r="EG28" s="16">
         <f t="shared" si="38"/>
-        <v>2831.1715489114781</v>
+        <v>16076.351442626241</v>
       </c>
       <c r="EH28" s="16">
         <f t="shared" si="38"/>
-        <v>2774.5481179332487</v>
+        <v>15915.587928199979</v>
       </c>
       <c r="EI28" s="16">
         <f t="shared" si="38"/>
-        <v>2719.0571555745837</v>
+        <v>15756.432048917979</v>
       </c>
       <c r="EJ28" s="16">
         <f t="shared" si="38"/>
-        <v>2664.6760124630919</v>
+        <v>15598.867728428799</v>
       </c>
       <c r="EK28" s="16">
         <f t="shared" si="38"/>
-        <v>2611.3824922138301</v>
+        <v>15442.879051144511</v>
       </c>
       <c r="EL28" s="16">
         <f t="shared" si="38"/>
-        <v>2559.1548423695535</v>
+        <v>15288.450260633066</v>
       </c>
       <c r="EM28" s="16">
         <f t="shared" si="38"/>
-        <v>2507.9717455221626</v>
+        <v>15135.565758026736</v>
       </c>
       <c r="EN28" s="16">
         <f t="shared" si="38"/>
-        <v>2457.8123106117191</v>
+        <v>14984.210100446469</v>
       </c>
       <c r="EO28" s="16">
         <f t="shared" si="38"/>
-        <v>2408.6560643994849</v>
+        <v>14834.367999442005</v>
       </c>
       <c r="EP28" s="16">
         <f t="shared" si="38"/>
-        <v>2360.4829431114949</v>
+        <v>14686.024319447586</v>
       </c>
       <c r="EQ28" s="16">
         <f t="shared" si="38"/>
-        <v>2313.2732842492651</v>
+        <v>14539.16407625311</v>
       </c>
       <c r="ER28" s="16">
         <f t="shared" si="38"/>
-        <v>2267.0078185642797</v>
+        <v>14393.772435490579</v>
       </c>
       <c r="ES28" s="16">
         <f t="shared" si="38"/>
-        <v>2221.6676621929942</v>
+        <v>14249.834711135672</v>
       </c>
       <c r="ET28" s="16">
         <f t="shared" si="38"/>
-        <v>2177.2343089491342</v>
+        <v>14107.336364024315</v>
       </c>
       <c r="EU28" s="16">
         <f t="shared" si="38"/>
-        <v>2133.6896227701513</v>
+        <v>13966.263000384071</v>
       </c>
       <c r="EV28" s="16">
         <f t="shared" si="38"/>
-        <v>2091.0158303147482</v>
+        <v>13826.600370380231</v>
       </c>
       <c r="EW28" s="16">
         <f t="shared" si="38"/>
-        <v>2049.1955137084533</v>
+        <v>13688.334366676429</v>
       </c>
       <c r="EX28" s="16">
         <f t="shared" si="38"/>
-        <v>2008.2116034342841</v>
+        <v>13551.451023009664</v>
       </c>
       <c r="EY28" s="16">
         <f t="shared" si="38"/>
-        <v>1968.0473713655983</v>
+        <v>13415.936512779566</v>
       </c>
       <c r="EZ28" s="16">
         <f t="shared" si="38"/>
-        <v>1928.6864239382862</v>
+        <v>13281.77714765177</v>
       </c>
       <c r="FA28" s="16">
         <f t="shared" si="38"/>
-        <v>1890.1126954595204</v>
+        <v>13148.959376175253</v>
       </c>
       <c r="FB28" s="16">
         <f t="shared" si="38"/>
-        <v>1852.3104415503299</v>
+        <v>13017.4697824135</v>
       </c>
       <c r="FC28" s="16">
         <f t="shared" si="38"/>
-        <v>1815.2642327193232</v>
+        <v>12887.295084589365</v>
       </c>
       <c r="FD28" s="16">
         <f t="shared" si="38"/>
-        <v>1778.9589480649367</v>
+        <v>12758.42213374347</v>
       </c>
       <c r="FE28" s="16">
         <f t="shared" si="38"/>
-        <v>1743.379769103638</v>
+        <v>12630.837912406036</v>
       </c>
       <c r="FF28" s="16">
         <f t="shared" si="38"/>
-        <v>1708.5121737215652</v>
+        <v>12504.529533281975</v>
       </c>
       <c r="FG28" s="16">
         <f t="shared" si="38"/>
-        <v>1674.3419302471339</v>
+        <v>12379.484237949155</v>
       </c>
       <c r="FH28" s="16">
         <f t="shared" si="38"/>
-        <v>1640.8550916421912</v>
+        <v>12255.689395569663</v>
       </c>
       <c r="FI28" s="16">
         <f t="shared" si="38"/>
-        <v>1608.0379898093472</v>
+        <v>12133.132501613967</v>
       </c>
     </row>
     <row r="29" spans="1:165" x14ac:dyDescent="0.15">
@@ -3251,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="18">
-        <f t="shared" ref="B29:E29" si="39">B28/B30</f>
+        <f t="shared" ref="B29:F29" si="39">B28/B30</f>
         <v>4.4750506908076526E-2</v>
       </c>
       <c r="C29" s="18">
@@ -3266,65 +3270,65 @@
         <f t="shared" si="39"/>
         <v>1.1874791758566789</v>
       </c>
-      <c r="F29" s="19">
-        <f t="shared" ref="F29:G29" si="40">F28/F30</f>
-        <v>1.3210924919372693</v>
+      <c r="F29" s="18">
+        <f t="shared" si="39"/>
+        <v>2.259206532942827</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="40"/>
-        <v>1.5910022664954016</v>
+        <f t="shared" ref="G29" si="40">G28/G30</f>
+        <v>2.5125194987635799</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" ref="H29:O29" si="41">H28/H30</f>
-        <v>1.9147812760206253</v>
+        <v>3.210314653876309</v>
       </c>
       <c r="I29" s="19">
         <f t="shared" si="41"/>
-        <v>2.3029402914535404</v>
+        <v>4.0822318850098673</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" si="41"/>
-        <v>2.7680055155826864</v>
+        <v>5.1697421085873838</v>
       </c>
       <c r="K29" s="19">
         <f t="shared" si="41"/>
-        <v>3.1369631551422881</v>
+        <v>5.7982027158286371</v>
       </c>
       <c r="L29" s="19">
         <f t="shared" si="41"/>
-        <v>3.5478327962230476</v>
+        <v>6.4941963973804882</v>
       </c>
       <c r="M29" s="19">
         <f t="shared" si="41"/>
-        <v>4.0050633933691451</v>
+        <v>7.2646957271473669</v>
       </c>
       <c r="N29" s="19">
         <f t="shared" si="41"/>
-        <v>4.5135618023215223</v>
+        <v>8.1173812433163075</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" si="41"/>
-        <v>5.0787392224310537</v>
+        <v>9.0607127757704973</v>
       </c>
       <c r="P29" s="19">
         <f t="shared" ref="P29:T29" si="42">P28/P30</f>
-        <v>5.7065623159618255</v>
+        <v>10.104007932719298</v>
       </c>
       <c r="Q29" s="19">
         <f t="shared" si="42"/>
-        <v>6.4036094736065605</v>
+        <v>11.257528463788974</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" si="42"/>
-        <v>7.1771327425500386</v>
+        <v>12.532575288608674</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="42"/>
-        <v>8.0351259851357923</v>
+        <v>13.941593058899365</v>
       </c>
       <c r="T29" s="19">
         <f t="shared" si="42"/>
-        <v>8.9863998930868068</v>
+        <v>15.498285208946736</v>
       </c>
     </row>
     <row r="30" spans="1:165" x14ac:dyDescent="0.15">
@@ -3348,101 +3352,104 @@
         <v>3349.1113620000001</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" ref="F30" si="43">E30</f>
-        <v>3349.1113620000001</v>
+        <f>'Reports RMB'!U21</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ref="G30" si="44">F30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="G30" si="43">F30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30" si="45">G30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="H30" si="44">G30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" ref="I30" si="46">H30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="I30" si="45">H30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" ref="J30" si="47">I30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="J30" si="46">I30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" ref="K30" si="48">J30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="K30" si="47">J30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" ref="L30" si="49">K30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="L30" si="48">K30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" ref="M30" si="50">L30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="M30" si="49">L30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" ref="N30" si="51">M30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="N30" si="50">M30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" ref="O30:T30" si="52">N30</f>
-        <v>3349.1113620000001</v>
+        <f t="shared" ref="O30:T30" si="51">N30</f>
+        <v>3361.9099379999998</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="52"/>
-        <v>3349.1113620000001</v>
+        <f t="shared" si="51"/>
+        <v>3361.9099379999998</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="52"/>
-        <v>3349.1113620000001</v>
+        <f t="shared" si="51"/>
+        <v>3361.9099379999998</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="52"/>
-        <v>3349.1113620000001</v>
+        <f t="shared" si="51"/>
+        <v>3361.9099379999998</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="52"/>
-        <v>3349.1113620000001</v>
+        <f t="shared" si="51"/>
+        <v>3361.9099379999998</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="52"/>
-        <v>3349.1113620000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:165" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+        <f t="shared" si="51"/>
+        <v>3361.9099379999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:165" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="7">
         <f>B30/2</f>
         <v>949.70991249999997</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="7">
         <f>C30/2</f>
         <v>1361.2822329999999</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="7">
         <f>D30/2</f>
         <v>1563.457531</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="7">
         <f>E30/2</f>
         <v>1674.555681</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="F31" s="7">
+        <f>F30/2</f>
+        <v>1680.9549689999999</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:165" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
@@ -3465,1027 +3472,1220 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="3">
-        <v>6.94</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6.48</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6.8784999999999998</v>
-      </c>
-      <c r="E33" s="3">
-        <v>6.9622999999999999</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="16">
-        <f>B18/B33</f>
-        <v>628.386167146974</v>
-      </c>
-      <c r="C34" s="16">
-        <f>C18/C33</f>
-        <v>1694.5987654320986</v>
-      </c>
-      <c r="D34" s="16">
-        <f>D18/D33</f>
-        <v>2760.0494293814058</v>
-      </c>
-      <c r="E34" s="16">
-        <f>E18/E33</f>
-        <v>3653.1031412033381</v>
-      </c>
-      <c r="F34" s="16">
-        <f>F18/$C$9</f>
-        <v>4247.9430379746836</v>
-      </c>
-      <c r="G34" s="16">
-        <f>G18/$C$9</f>
-        <v>5044.4323575949365</v>
-      </c>
-      <c r="H34" s="16">
-        <f>H18/$C$9</f>
-        <v>5990.2634246439875</v>
-      </c>
-      <c r="I34" s="16">
-        <f>I18/$C$9</f>
-        <v>7113.4378167647346</v>
-      </c>
-      <c r="J34" s="16">
-        <f>J18/$C$9</f>
-        <v>8447.2074074081211</v>
-      </c>
-      <c r="K34" s="16">
-        <f>K18/$C$9</f>
-        <v>9291.9281481489343</v>
-      </c>
-      <c r="L34" s="16">
-        <f>L18/$C$9</f>
-        <v>10221.120962963829</v>
-      </c>
-      <c r="M34" s="16">
-        <f>M18/$C$9</f>
-        <v>11243.233059260212</v>
-      </c>
-      <c r="N34" s="16">
-        <f>N18/$C$9</f>
-        <v>12367.556365186234</v>
-      </c>
-      <c r="O34" s="16">
-        <f>O18/$C$9</f>
-        <v>13604.312001704859</v>
-      </c>
-      <c r="P34" s="16">
-        <f>P18/$C$9</f>
-        <v>14964.743201875344</v>
-      </c>
-      <c r="Q34" s="16">
-        <f>Q18/$C$9</f>
-        <v>16461.217522062881</v>
-      </c>
-      <c r="R34" s="16">
-        <f>R18/$C$9</f>
-        <v>18107.339274269172</v>
-      </c>
-      <c r="S34" s="16">
-        <f>S18/$C$9</f>
-        <v>19918.07320169609</v>
-      </c>
-      <c r="T34" s="16">
-        <f>T18/$C$9</f>
-        <v>21909.880521865703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="16">
-        <f>B28/B33</f>
-        <v>12.247838616714697</v>
-      </c>
-      <c r="C35" s="16">
-        <f>C28/C33</f>
-        <v>203.54938271604937</v>
-      </c>
-      <c r="D35" s="16">
-        <f>D28/D33</f>
-        <v>266.1917569237479</v>
-      </c>
-      <c r="E35" s="16">
-        <f>E28/E33</f>
-        <v>571.21928098473211</v>
-      </c>
-      <c r="F35" s="16">
-        <f>F28/$C$9</f>
-        <v>622.29055907173017</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" ref="G35:O35" si="53">G28/$C$9</f>
-        <v>749.42950319092847</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="53"/>
-        <v>901.94314026238169</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="53"/>
-        <v>1084.782488905013</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="53"/>
-        <v>1303.8479215635223</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="53"/>
-        <v>1477.6426083069487</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="53"/>
-        <v>1671.1796242344358</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="53"/>
-        <v>1886.5546155081406</v>
-      </c>
-      <c r="N35" s="16">
-        <f t="shared" si="53"/>
-        <v>2126.0789191623358</v>
-      </c>
-      <c r="O35" s="16">
-        <f t="shared" si="53"/>
-        <v>2392.3014394485072</v>
-      </c>
-      <c r="P35" s="16">
-        <f t="shared" ref="P35:T35" si="54">P28/$C$9</f>
-        <v>2688.0327271939218</v>
-      </c>
-      <c r="Q35" s="16">
-        <f t="shared" si="54"/>
-        <v>3016.3714832442433</v>
-      </c>
-      <c r="R35" s="16">
-        <f t="shared" si="54"/>
-        <v>3380.7337292062666</v>
-      </c>
-      <c r="S35" s="16">
-        <f t="shared" si="54"/>
-        <v>3784.8849130688782</v>
-      </c>
-      <c r="T35" s="16">
-        <f t="shared" si="54"/>
-        <v>4232.975244080535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B33" s="22">
         <f>IFERROR(B20/B18,0)</f>
         <v>0.2825040128410915</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C33" s="22">
         <f>IFERROR(C20/C18,0)</f>
         <v>0.34696293598032968</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D33" s="22">
         <f>IFERROR(D20/D18,0)</f>
         <v>0.38330260732156968</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E33" s="22">
         <f>IFERROR(E20/E18,0)</f>
         <v>0.34100023590469453</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F33" s="22">
         <f>IFERROR(F20/F18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="G37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="G33" s="22">
         <f>IFERROR(G20/G18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="H37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="H33" s="22">
         <f>IFERROR(H20/H18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="I37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="I33" s="22">
         <f>IFERROR(I20/I18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="J37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="J33" s="22">
         <f>IFERROR(J20/J18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="K37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="K33" s="22">
         <f>IFERROR(K20/K18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="L37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="L33" s="22">
         <f>IFERROR(L20/L18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="M37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="M33" s="22">
         <f>IFERROR(M20/M18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="N37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="N33" s="22">
         <f>IFERROR(N20/N18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="O37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="O33" s="22">
         <f>IFERROR(O20/O18,0)</f>
-        <v>0.34100023590469453</v>
-      </c>
-      <c r="P37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="P33" s="22">
         <f>IFERROR(P20/P18,0)</f>
-        <v>0.34100023590469447</v>
-      </c>
-      <c r="Q37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="Q33" s="22">
         <f>IFERROR(Q20/Q18,0)</f>
-        <v>0.34100023590469447</v>
-      </c>
-      <c r="R37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="R33" s="22">
         <f>IFERROR(R20/R18,0)</f>
-        <v>0.34100023590469447</v>
-      </c>
-      <c r="S37" s="22">
+        <v>0.38764992258542452</v>
+      </c>
+      <c r="S33" s="22">
         <f>IFERROR(S20/S18,0)</f>
-        <v>0.34100023590469447</v>
-      </c>
-      <c r="T37" s="22">
+        <v>0.38764992258542447</v>
+      </c>
+      <c r="T33" s="22">
         <f>IFERROR(T20/T18,0)</f>
-        <v>0.34100023590469447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+        <v>0.38764992258542447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B34" s="21">
         <f>IFERROR(B24/B18,0)</f>
         <v>1.9261637239165328E-2</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C34" s="21">
         <f>IFERROR(C24/C18,0)</f>
         <v>0.12530734905746288</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D34" s="21">
         <f>IFERROR(D24/D18,0)</f>
         <v>0.17408480379246774</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E34" s="21">
         <f>IFERROR(E24/E18,0)</f>
         <v>0.1544782574506566</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F34" s="21">
         <f>IFERROR(F24/F18,0)</f>
-        <v>0.15698960777740534</v>
-      </c>
-      <c r="G38" s="21">
+        <v>0.21942844210428814</v>
+      </c>
+      <c r="G34" s="21">
         <f>IFERROR(G24/G18,0)</f>
-        <v>0.15938608580526822</v>
-      </c>
-      <c r="H38" s="21">
+        <v>0.22847605186889783</v>
+      </c>
+      <c r="H34" s="21">
         <f>IFERROR(H24/H18,0)</f>
-        <v>0.16167094469632498</v>
-      </c>
-      <c r="I38" s="21">
+        <v>0.23642119854439653</v>
+      </c>
+      <c r="I34" s="21">
         <f>IFERROR(I24/I18,0)</f>
-        <v>0.16384733094033468</v>
-      </c>
-      <c r="J38" s="21">
+        <v>0.24338301631726783</v>
+      </c>
+      <c r="J34" s="21">
         <f>IFERROR(J24/J18,0)</f>
-        <v>0.16591828768185279</v>
-      </c>
-      <c r="K38" s="21">
+        <v>0.24946759987215644</v>
+      </c>
+      <c r="K34" s="21">
         <f>IFERROR(K24/K18,0)</f>
-        <v>0.1700329083968754</v>
-      </c>
-      <c r="L38" s="21">
+        <v>0.25207987093404843</v>
+      </c>
+      <c r="L34" s="21">
         <f>IFERROR(L24/L18,0)</f>
-        <v>0.17396050089757881</v>
-      </c>
-      <c r="M38" s="21">
+        <v>0.25457340240221804</v>
+      </c>
+      <c r="M34" s="21">
         <f>IFERROR(M24/M18,0)</f>
-        <v>0.1777095664664321</v>
-      </c>
-      <c r="N38" s="21">
+        <v>0.25695359153092545</v>
+      </c>
+      <c r="N34" s="21">
         <f>IFERROR(N24/N18,0)</f>
-        <v>0.18128821996397385</v>
-      </c>
-      <c r="O38" s="21">
+        <v>0.25922559024469155</v>
+      </c>
+      <c r="O34" s="21">
         <f>IFERROR(O24/O18,0)</f>
-        <v>0.18470420739344554</v>
-      </c>
-      <c r="P38" s="21">
+        <v>0.26139431628965015</v>
+      </c>
+      <c r="P34" s="21">
         <f>IFERROR(P24/P18,0)</f>
-        <v>0.18796492266703207</v>
-      </c>
-      <c r="Q38" s="21">
+        <v>0.26346446387801969</v>
+      </c>
+      <c r="Q34" s="21">
         <f>IFERROR(Q24/Q18,0)</f>
-        <v>0.1910774236100011</v>
-      </c>
-      <c r="R38" s="21">
+        <v>0.26544051384873607</v>
+      </c>
+      <c r="R34" s="21">
         <f>IFERROR(R24/R18,0)</f>
-        <v>0.19404844723738063</v>
-      </c>
-      <c r="S38" s="21">
+        <v>0.26732674336623802</v>
+      </c>
+      <c r="S34" s="21">
         <f>IFERROR(S24/S18,0)</f>
-        <v>0.19688442433624295</v>
-      </c>
-      <c r="T38" s="21">
+        <v>0.26912723517839904</v>
+      </c>
+      <c r="T34" s="21">
         <f>IFERROR(T24/T18,0)</f>
-        <v>0.19959149338515694</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+        <v>0.2708458864536436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="21">
-        <f t="shared" ref="B39:O39" si="55">IFERROR(B27/B26,0)</f>
+      <c r="B35" s="21">
+        <f>IFERROR(B27/B26,0)</f>
         <v>0.25438596491228072</v>
       </c>
-      <c r="C39" s="21">
-        <f t="shared" si="55"/>
+      <c r="C35" s="21">
+        <f>IFERROR(C27/C26,0)</f>
         <v>0.17407639323731997</v>
       </c>
-      <c r="D39" s="21">
-        <f t="shared" si="55"/>
+      <c r="D35" s="21">
+        <f>IFERROR(D27/D26,0)</f>
         <v>8.5414585414585409E-2</v>
       </c>
-      <c r="E39" s="21">
-        <f t="shared" si="55"/>
+      <c r="E35" s="21">
+        <f>IFERROR(E27/E26,0)</f>
         <v>0.12400881057268723</v>
       </c>
-      <c r="F39" s="21">
-        <f t="shared" si="55"/>
+      <c r="F35" s="21">
+        <f>IFERROR(F27/F26,0)</f>
+        <v>6.4065392784569034E-2</v>
+      </c>
+      <c r="G35" s="21">
+        <f>IFERROR(G27/G26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="G39" s="21">
-        <f t="shared" si="55"/>
+      <c r="H35" s="21">
+        <f>IFERROR(H27/H26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="H39" s="21">
-        <f t="shared" si="55"/>
+      <c r="I35" s="21">
+        <f>IFERROR(I27/I26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="I39" s="21">
-        <f t="shared" si="55"/>
+      <c r="J35" s="21">
+        <f>IFERROR(J27/J26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="J39" s="21">
-        <f t="shared" si="55"/>
+      <c r="K35" s="21">
+        <f>IFERROR(K27/K26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="K39" s="21">
-        <f t="shared" si="55"/>
+      <c r="L35" s="21">
+        <f>IFERROR(L27/L26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="L39" s="21">
-        <f t="shared" si="55"/>
+      <c r="M35" s="21">
+        <f>IFERROR(M27/M26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="M39" s="21">
-        <f t="shared" si="55"/>
+      <c r="N35" s="21">
+        <f>IFERROR(N27/N26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="N39" s="21">
-        <f t="shared" si="55"/>
+      <c r="O35" s="21">
+        <f>IFERROR(O27/O26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="O39" s="21">
-        <f t="shared" si="55"/>
+      <c r="P35" s="21">
+        <f>IFERROR(P27/P26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="P39" s="21">
-        <f t="shared" ref="P39:T39" si="56">IFERROR(P27/P26,0)</f>
+      <c r="Q35" s="21">
+        <f>IFERROR(Q27/Q26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="Q39" s="21">
-        <f t="shared" si="56"/>
+      <c r="R35" s="21">
+        <f>IFERROR(R27/R26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="R39" s="21">
-        <f t="shared" si="56"/>
+      <c r="S35" s="21">
+        <f>IFERROR(S27/S26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="S39" s="21">
-        <f t="shared" si="56"/>
+      <c r="T35" s="21">
+        <f>IFERROR(T27/T26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="T39" s="21">
-        <f t="shared" si="56"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="36" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
         <f>C18/B18-1</f>
         <v>1.5180004586104103</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D37" s="20">
         <f>D18/C18-1</f>
         <v>0.72889536472088157</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E37" s="20">
         <f>E18/D18-1</f>
         <v>0.33968922833816162</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F37" s="20">
         <f>F18/E18-1</f>
-        <v>0.18750000000000022</v>
-      </c>
-      <c r="G41" s="20">
+        <v>0.29891115442799432</v>
+      </c>
+      <c r="G37" s="20">
         <f>G18/F18-1</f>
-        <v>0.18749999999999978</v>
-      </c>
-      <c r="H41" s="20">
+        <v>0.23499999999999988</v>
+      </c>
+      <c r="H37" s="20">
         <f>H18/G18-1</f>
-        <v>0.1875</v>
-      </c>
-      <c r="I41" s="20">
+        <v>0.2350000000000001</v>
+      </c>
+      <c r="I37" s="20">
         <f>I18/H18-1</f>
-        <v>0.1875</v>
-      </c>
-      <c r="J41" s="20">
+        <v>0.23499999999999988</v>
+      </c>
+      <c r="J37" s="20">
         <f>J18/I18-1</f>
-        <v>0.18749999999999978</v>
-      </c>
-      <c r="K41" s="20">
+        <v>0.23499999999999988</v>
+      </c>
+      <c r="K37" s="20">
         <f>K18/J18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L37" s="20">
         <f>L18/K18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M37" s="20">
         <f>M18/L18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N37" s="20">
         <f>N18/M18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O37" s="20">
         <f>O18/N18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P41" s="20">
+      <c r="P37" s="20">
         <f>P18/O18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="Q37" s="20">
         <f>Q18/P18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R41" s="20">
+      <c r="R37" s="20">
         <f>R18/Q18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S37" s="20">
         <f>S18/R18-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T41" s="20">
+      <c r="T37" s="20">
         <f>T18/S18-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="38" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21">
+        <f>C21/B21-1</f>
+        <v>1.5013698630136987</v>
+      </c>
+      <c r="D38" s="21">
+        <f>D21/C21-1</f>
+        <v>0.8773274917853231</v>
+      </c>
+      <c r="E38" s="21">
+        <f>E21/D21-1</f>
+        <v>0.19078179696616093</v>
+      </c>
+      <c r="F38" s="21">
+        <f>F21/E21-1</f>
+        <v>0.24485546300832928</v>
+      </c>
+      <c r="G38" s="21">
+        <f>G21/F21-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="H38" s="21">
+        <f>H21/G21-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I38" s="21">
+        <f>I21/H21-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="J38" s="21">
+        <f>J21/I21-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="K38" s="21">
+        <f>K21/J21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L38" s="21">
+        <f>L21/K21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M38" s="21">
+        <f>M21/L21-1</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="N38" s="21">
+        <f>N21/M21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O38" s="21">
+        <f>O21/N21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P38" s="21">
+        <f>P21/O21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q38" s="21">
+        <f>Q21/P21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R38" s="21">
+        <f>R21/Q21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S38" s="21">
+        <f>S21/R21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T38" s="21">
+        <f>T21/S21-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21">
-        <f t="shared" ref="C42:T42" si="57">C21/B21-1</f>
-        <v>1.5013698630136987</v>
-      </c>
-      <c r="D42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.8773274917853231</v>
-      </c>
-      <c r="E42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19078179696616093</v>
-      </c>
-      <c r="F42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="G42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="K42" s="21">
-        <f t="shared" si="57"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21">
+        <f>C22/B22-1</f>
+        <v>0.94252873563218387</v>
+      </c>
+      <c r="D39" s="21">
+        <f>D22/C22-1</f>
+        <v>0.48454963839579235</v>
+      </c>
+      <c r="E39" s="21">
+        <f>E22/D22-1</f>
+        <v>0.19707705934455277</v>
+      </c>
+      <c r="F39" s="21">
+        <f>F22/E22-1</f>
+        <v>0.11605623381428032</v>
+      </c>
+      <c r="G39" s="21">
+        <f>G22/F22-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L42" s="21">
-        <f t="shared" si="57"/>
+      <c r="H39" s="21">
+        <f>H22/G22-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M42" s="21">
-        <f t="shared" si="57"/>
+      <c r="I39" s="21">
+        <f>I22/H22-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N42" s="21">
-        <f t="shared" si="57"/>
+      <c r="J39" s="21">
+        <f>J22/I22-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="P42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="T42" s="21">
-        <f t="shared" si="57"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21">
-        <f t="shared" ref="C43:T43" si="58">C22/B22-1</f>
-        <v>0.94252873563218387</v>
-      </c>
-      <c r="D43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.48454963839579235</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.19707705934455277</v>
-      </c>
-      <c r="F43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="G43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="I43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="J43" s="21">
-        <f t="shared" si="58"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="K43" s="21">
-        <f t="shared" si="58"/>
+      <c r="K39" s="21">
+        <f>K22/J22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="L43" s="21">
-        <f t="shared" si="58"/>
+      <c r="L39" s="21">
+        <f>L22/K22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M43" s="21">
-        <f t="shared" si="58"/>
+      <c r="M39" s="21">
+        <f>M22/L22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N43" s="21">
-        <f t="shared" si="58"/>
+      <c r="N39" s="21">
+        <f>N22/M22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O43" s="21">
-        <f t="shared" si="58"/>
+      <c r="O39" s="21">
+        <f>O22/N22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P43" s="21">
-        <f t="shared" si="58"/>
+      <c r="P39" s="21">
+        <f>P22/O22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q43" s="21">
-        <f t="shared" si="58"/>
+      <c r="Q39" s="21">
+        <f>Q22/P22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R43" s="21">
-        <f t="shared" si="58"/>
+      <c r="R39" s="21">
+        <f>R22/Q22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S43" s="21">
-        <f t="shared" si="58"/>
+      <c r="S39" s="21">
+        <f>S22/R22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T43" s="21">
-        <f t="shared" si="58"/>
+      <c r="T39" s="21">
+        <f>T22/S22-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71">
+    <row r="40" spans="1:120" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69">
         <f>C23/B23-1</f>
         <v>1.1202090592334493</v>
       </c>
-      <c r="D44" s="71">
-        <f t="shared" ref="D44:T44" si="59">D23/C23-1</f>
+      <c r="D40" s="69">
+        <f>D23/C23-1</f>
         <v>0.63188167625308145</v>
       </c>
-      <c r="E44" s="71">
-        <f t="shared" si="59"/>
+      <c r="E40" s="69">
+        <f>E23/D23-1</f>
         <v>0.19436052366565959</v>
       </c>
-      <c r="F44" s="71">
-        <f t="shared" si="59"/>
-        <v>0.17151138279932532</v>
-      </c>
-      <c r="G44" s="71">
-        <f t="shared" si="59"/>
-        <v>0.17203449299614038</v>
-      </c>
-      <c r="H44" s="71">
-        <f t="shared" si="59"/>
-        <v>0.17256025036240596</v>
-      </c>
-      <c r="I44" s="71">
-        <f t="shared" si="59"/>
-        <v>0.17308819561853639</v>
-      </c>
-      <c r="J44" s="71">
-        <f t="shared" si="59"/>
-        <v>0.17361786167973081</v>
-      </c>
-      <c r="K44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.4148775287991686E-2</v>
-      </c>
-      <c r="L44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.4729956806652842E-2</v>
-      </c>
-      <c r="M44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.5311430387728251E-2</v>
-      </c>
-      <c r="N44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.5892567157462398E-2</v>
-      </c>
-      <c r="O44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.6472739697847736E-2</v>
-      </c>
-      <c r="P44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.7051324751434169E-2</v>
-      </c>
-      <c r="Q44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.7627705888059451E-2</v>
-      </c>
-      <c r="R44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.8201276109378659E-2</v>
-      </c>
-      <c r="S44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.877144036803152E-2</v>
-      </c>
-      <c r="T44" s="71">
-        <f t="shared" si="59"/>
-        <v>7.9337617979613695E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="F40" s="69">
+        <f>F23/E23-1</f>
+        <v>0.17146922428330513</v>
+      </c>
+      <c r="G40" s="69">
+        <f>G23/F23-1</f>
+        <v>0.16857686528893656</v>
+      </c>
+      <c r="H40" s="69">
+        <f>H23/G23-1</f>
+        <v>0.17335510753071071</v>
+      </c>
+      <c r="I40" s="69">
+        <f>I23/H23-1</f>
+        <v>0.17814674673071074</v>
+      </c>
+      <c r="J40" s="69">
+        <f>J23/I23-1</f>
+        <v>0.18291278967111202</v>
+      </c>
+      <c r="K40" s="69">
+        <f>K23/J23-1</f>
+        <v>7.9205023394752549E-2</v>
+      </c>
+      <c r="L40" s="69">
+        <f>L23/K23-1</f>
+        <v>7.9767768901940261E-2</v>
+      </c>
+      <c r="M40" s="69">
+        <f>M23/L23-1</f>
+        <v>8.0325544746934874E-2</v>
+      </c>
+      <c r="N40" s="69">
+        <f>N23/M23-1</f>
+        <v>8.0877821397292271E-2</v>
+      </c>
+      <c r="O40" s="69">
+        <f>O23/N23-1</f>
+        <v>8.1424091478825122E-2</v>
+      </c>
+      <c r="P40" s="69">
+        <f>P23/O23-1</f>
+        <v>8.1963871434969304E-2</v>
+      </c>
+      <c r="Q40" s="69">
+        <f>Q23/P23-1</f>
+        <v>8.2496702992341353E-2</v>
+      </c>
+      <c r="R40" s="69">
+        <f>R23/Q23-1</f>
+        <v>8.3022154425747452E-2</v>
+      </c>
+      <c r="S40" s="69">
+        <f>S23/R23-1</f>
+        <v>8.3539821618499266E-2</v>
+      </c>
+      <c r="T40" s="69">
+        <f>T23/S23-1</f>
+        <v>8.4049328916440125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="16">
-        <f>B47-B48</f>
+      <c r="B42" s="16">
+        <f>B43-B44</f>
         <v>3634</v>
       </c>
-      <c r="C46" s="16">
-        <f>C47-C48</f>
+      <c r="C42" s="16">
+        <f>C43-C44</f>
         <v>9292</v>
       </c>
-      <c r="D46" s="16">
-        <f>D47-D48</f>
+      <c r="D42" s="16">
+        <f>D43-D44</f>
         <v>21221</v>
       </c>
-      <c r="E46" s="16">
-        <f>E47-E48</f>
+      <c r="E42" s="16">
+        <f>E43-E44</f>
         <v>23187</v>
       </c>
-      <c r="F46" s="43">
-        <f t="shared" ref="F46:T46" si="60">E46+F28</f>
-        <v>27611.485875000002</v>
-      </c>
-      <c r="G46" s="43">
-        <f t="shared" si="60"/>
-        <v>32939.929642687501</v>
-      </c>
-      <c r="H46" s="43">
-        <f t="shared" si="60"/>
-        <v>39352.745369953038</v>
-      </c>
-      <c r="I46" s="43">
-        <f t="shared" si="60"/>
-        <v>47065.548866067678</v>
-      </c>
-      <c r="J46" s="43">
-        <f t="shared" si="60"/>
-        <v>56335.907588384318</v>
-      </c>
-      <c r="K46" s="43">
-        <f t="shared" si="60"/>
-        <v>66841.946533446724</v>
-      </c>
-      <c r="L46" s="43">
-        <f t="shared" si="60"/>
-        <v>78724.033661753565</v>
-      </c>
-      <c r="M46" s="43">
-        <f t="shared" si="60"/>
-        <v>92137.436978016442</v>
-      </c>
-      <c r="N46" s="43">
-        <f t="shared" si="60"/>
-        <v>107253.85809326066</v>
-      </c>
-      <c r="O46" s="43">
-        <f t="shared" si="60"/>
-        <v>124263.12132773954</v>
-      </c>
-      <c r="P46" s="43">
-        <f t="shared" si="60"/>
-        <v>143375.03401808834</v>
-      </c>
-      <c r="Q46" s="43">
-        <f t="shared" si="60"/>
-        <v>164821.43526395492</v>
-      </c>
-      <c r="R46" s="43">
-        <f t="shared" si="60"/>
-        <v>188858.45207861147</v>
-      </c>
-      <c r="S46" s="43">
-        <f t="shared" si="60"/>
-        <v>215768.98381053121</v>
-      </c>
-      <c r="T46" s="43">
-        <f t="shared" si="60"/>
-        <v>245865.43779594381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F42" s="43">
+        <f>E42+F28</f>
+        <v>30782.248895095014</v>
+      </c>
+      <c r="G42" s="43">
+        <f>F42+G28</f>
+        <v>39229.113167407071</v>
+      </c>
+      <c r="H42" s="43">
+        <f>G42+H28</f>
+        <v>50021.901906380866</v>
+      </c>
+      <c r="I42" s="43">
+        <f>H42+I28</f>
+        <v>63745.997849816013</v>
+      </c>
+      <c r="J42" s="43">
+        <f>I42+J28</f>
+        <v>81126.205221573007</v>
+      </c>
+      <c r="K42" s="43">
+        <f>J42+K28</f>
+        <v>100619.24055445589</v>
+      </c>
+      <c r="L42" s="43">
+        <f>K42+L28</f>
+        <v>122452.14396213315</v>
+      </c>
+      <c r="M42" s="43">
+        <f>L42+M28</f>
+        <v>146875.39672377601</v>
+      </c>
+      <c r="N42" s="43">
+        <f>M42+N28</f>
+        <v>174165.30139621589</v>
+      </c>
+      <c r="O42" s="43">
+        <f>N42+O28</f>
+        <v>204626.60172244228</v>
+      </c>
+      <c r="P42" s="43">
+        <f>O42+P28</f>
+        <v>238595.36640508211</v>
+      </c>
+      <c r="Q42" s="43">
+        <f>P42+Q28</f>
+        <v>276442.16322481213</v>
+      </c>
+      <c r="R42" s="43">
+        <f>Q42+R28</f>
+        <v>318575.55263631884</v>
+      </c>
+      <c r="S42" s="43">
+        <f>R42+S28</f>
+        <v>365445.93289258442</v>
+      </c>
+      <c r="T42" s="43">
+        <f>S42+T28</f>
+        <v>417549.77195850085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="45">
+        <f>'Reports RMB'!E33</f>
+        <v>3634</v>
+      </c>
+      <c r="C43" s="45">
+        <f>'Reports RMB'!I33</f>
+        <v>9292</v>
+      </c>
+      <c r="D43" s="45">
+        <f>'Reports RMB'!M33</f>
+        <v>21221</v>
+      </c>
+      <c r="E43" s="45">
+        <f>'Reports RMB'!Q33</f>
+        <v>23187</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+    </row>
+    <row r="44" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="45">
+        <f>'Reports RMB'!E34</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="45">
+        <f>'Reports RMB'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="45">
+        <f>'Reports RMB'!M34</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="45">
+        <f>'Reports RMB'!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+    </row>
+    <row r="45" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+    </row>
+    <row r="46" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="45">
+        <f>'Reports RMB'!E36</f>
+        <v>17769</v>
+      </c>
+      <c r="C46" s="45">
+        <f>'Reports RMB'!I36</f>
+        <v>17979</v>
+      </c>
+      <c r="D46" s="45">
+        <f>'Reports RMB'!M36</f>
+        <v>18851</v>
+      </c>
+      <c r="E46" s="45">
+        <f>'Reports RMB'!Q36</f>
+        <v>18762</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="15"/>
+      <c r="BV46" s="15"/>
+      <c r="BW46" s="15"/>
+      <c r="BX46" s="15"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="15"/>
+      <c r="CA46" s="15"/>
+      <c r="CB46" s="15"/>
+      <c r="CC46" s="15"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="15"/>
+      <c r="CF46" s="15"/>
+      <c r="CG46" s="15"/>
+      <c r="CH46" s="15"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="15"/>
+      <c r="CK46" s="15"/>
+      <c r="CL46" s="15"/>
+      <c r="CM46" s="15"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="15"/>
+      <c r="CP46" s="15"/>
+      <c r="CQ46" s="15"/>
+      <c r="CR46" s="15"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="15"/>
+      <c r="CU46" s="15"/>
+      <c r="CV46" s="15"/>
+      <c r="CW46" s="15"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="15"/>
+      <c r="CZ46" s="15"/>
+      <c r="DA46" s="15"/>
+      <c r="DB46" s="15"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="15"/>
+      <c r="DE46" s="15"/>
+      <c r="DF46" s="15"/>
+      <c r="DG46" s="15"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="15"/>
+      <c r="DJ46" s="15"/>
+      <c r="DK46" s="15"/>
+      <c r="DL46" s="15"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="15"/>
+      <c r="DO46" s="15"/>
+      <c r="DP46" s="15"/>
+    </row>
+    <row r="47" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B47" s="45">
-        <f>'Reports RMB'!E34</f>
-        <v>3634</v>
+        <f>'Reports RMB'!E37</f>
+        <v>23535</v>
       </c>
       <c r="C47" s="45">
-        <f>'Reports RMB'!I34</f>
-        <v>9292</v>
+        <f>'Reports RMB'!I37</f>
+        <v>30000</v>
       </c>
       <c r="D47" s="45">
-        <f>'Reports RMB'!M34</f>
-        <v>21221</v>
+        <f>'Reports RMB'!M37</f>
+        <v>44605</v>
       </c>
       <c r="E47" s="45">
-        <f>'Reports RMB'!Q34</f>
-        <v>23187</v>
-      </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+        <f>'Reports RMB'!Q37</f>
+        <v>52678</v>
+      </c>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15"/>
+      <c r="AY47" s="15"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="15"/>
+      <c r="BB47" s="15"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="15"/>
+      <c r="BM47" s="15"/>
+      <c r="BN47" s="15"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="15"/>
+      <c r="BS47" s="15"/>
+      <c r="BT47" s="15"/>
+      <c r="BU47" s="15"/>
+      <c r="BV47" s="15"/>
+      <c r="BW47" s="15"/>
+      <c r="BX47" s="15"/>
+      <c r="BY47" s="15"/>
+      <c r="BZ47" s="15"/>
+      <c r="CA47" s="15"/>
+      <c r="CB47" s="15"/>
+      <c r="CC47" s="15"/>
+      <c r="CD47" s="15"/>
+      <c r="CE47" s="15"/>
+      <c r="CF47" s="15"/>
+      <c r="CG47" s="15"/>
+      <c r="CH47" s="15"/>
+      <c r="CI47" s="15"/>
+      <c r="CJ47" s="15"/>
+      <c r="CK47" s="15"/>
+      <c r="CL47" s="15"/>
+      <c r="CM47" s="15"/>
+      <c r="CN47" s="15"/>
+      <c r="CO47" s="15"/>
+      <c r="CP47" s="15"/>
+      <c r="CQ47" s="15"/>
+      <c r="CR47" s="15"/>
+      <c r="CS47" s="15"/>
+      <c r="CT47" s="15"/>
+      <c r="CU47" s="15"/>
+      <c r="CV47" s="15"/>
+      <c r="CW47" s="15"/>
+      <c r="CX47" s="15"/>
+      <c r="CY47" s="15"/>
+      <c r="CZ47" s="15"/>
+      <c r="DA47" s="15"/>
+      <c r="DB47" s="15"/>
+      <c r="DC47" s="15"/>
+      <c r="DD47" s="15"/>
+      <c r="DE47" s="15"/>
+      <c r="DF47" s="15"/>
+      <c r="DG47" s="15"/>
+      <c r="DH47" s="15"/>
+      <c r="DI47" s="15"/>
+      <c r="DJ47" s="15"/>
+      <c r="DK47" s="15"/>
+      <c r="DL47" s="15"/>
+      <c r="DM47" s="15"/>
+      <c r="DN47" s="15"/>
+      <c r="DO47" s="15"/>
+      <c r="DP47" s="15"/>
+    </row>
+    <row r="48" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B48" s="45">
-        <f>'Reports RMB'!E35</f>
-        <v>0</v>
+        <f>'Reports RMB'!E38</f>
+        <v>2901</v>
       </c>
       <c r="C48" s="45">
-        <f>'Reports RMB'!I35</f>
-        <v>0</v>
+        <f>'Reports RMB'!I38</f>
+        <v>3852</v>
       </c>
       <c r="D48" s="45">
-        <f>'Reports RMB'!M35</f>
-        <v>0</v>
+        <f>'Reports RMB'!M38</f>
+        <v>6833</v>
       </c>
       <c r="E48" s="45">
-        <f>'Reports RMB'!Q35</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-    </row>
-    <row r="49" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
+        <f>'Reports RMB'!Q38</f>
+        <v>9000</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
+      <c r="AR48" s="15"/>
+      <c r="AS48" s="15"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="15"/>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="15"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="15"/>
+      <c r="BL48" s="15"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="15"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="15"/>
+      <c r="BT48" s="15"/>
+      <c r="BU48" s="15"/>
+      <c r="BV48" s="15"/>
+      <c r="BW48" s="15"/>
+      <c r="BX48" s="15"/>
+      <c r="BY48" s="15"/>
+      <c r="BZ48" s="15"/>
+      <c r="CA48" s="15"/>
+      <c r="CB48" s="15"/>
+      <c r="CC48" s="15"/>
+      <c r="CD48" s="15"/>
+      <c r="CE48" s="15"/>
+      <c r="CF48" s="15"/>
+      <c r="CG48" s="15"/>
+      <c r="CH48" s="15"/>
+      <c r="CI48" s="15"/>
+      <c r="CJ48" s="15"/>
+      <c r="CK48" s="15"/>
+      <c r="CL48" s="15"/>
+      <c r="CM48" s="15"/>
+      <c r="CN48" s="15"/>
+      <c r="CO48" s="15"/>
+      <c r="CP48" s="15"/>
+      <c r="CQ48" s="15"/>
+      <c r="CR48" s="15"/>
+      <c r="CS48" s="15"/>
+      <c r="CT48" s="15"/>
+      <c r="CU48" s="15"/>
+      <c r="CV48" s="15"/>
+      <c r="CW48" s="15"/>
+      <c r="CX48" s="15"/>
+      <c r="CY48" s="15"/>
+      <c r="CZ48" s="15"/>
+      <c r="DA48" s="15"/>
+      <c r="DB48" s="15"/>
+      <c r="DC48" s="15"/>
+      <c r="DD48" s="15"/>
+      <c r="DE48" s="15"/>
+      <c r="DF48" s="15"/>
+      <c r="DG48" s="15"/>
+      <c r="DH48" s="15"/>
+      <c r="DI48" s="15"/>
+      <c r="DJ48" s="15"/>
+      <c r="DK48" s="15"/>
+      <c r="DL48" s="15"/>
+      <c r="DM48" s="15"/>
+      <c r="DN48" s="15"/>
+      <c r="DO48" s="15"/>
+      <c r="DP48" s="15"/>
     </row>
     <row r="50" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="45">
-        <f>'Reports RMB'!E37</f>
-        <v>17769</v>
-      </c>
-      <c r="C50" s="45">
-        <f>'Reports RMB'!I37</f>
-        <v>17979</v>
-      </c>
-      <c r="D50" s="45">
-        <f>'Reports RMB'!M37</f>
-        <v>18851</v>
-      </c>
-      <c r="E50" s="45">
-        <f>'Reports RMB'!Q37</f>
-        <v>18762</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="B50" s="46">
+        <f>B47-B46-B43</f>
+        <v>2132</v>
+      </c>
+      <c r="C50" s="46">
+        <f>C47-C46-C43</f>
+        <v>2729</v>
+      </c>
+      <c r="D50" s="46">
+        <f>D47-D46-D43</f>
+        <v>4533</v>
+      </c>
+      <c r="E50" s="46">
+        <f>E47-E46-E43</f>
+        <v>10729</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -4589,39 +4789,39 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="45">
-        <f>'Reports RMB'!E38</f>
-        <v>23535</v>
-      </c>
-      <c r="C51" s="45">
-        <f>'Reports RMB'!I38</f>
-        <v>30000</v>
-      </c>
-      <c r="D51" s="45">
-        <f>'Reports RMB'!M38</f>
-        <v>44605</v>
-      </c>
-      <c r="E51" s="45">
-        <f>'Reports RMB'!Q38</f>
-        <v>52678</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
+        <v>65</v>
+      </c>
+      <c r="B51" s="46">
+        <f>B47-B48</f>
+        <v>20634</v>
+      </c>
+      <c r="C51" s="46">
+        <f>C47-C48</f>
+        <v>26148</v>
+      </c>
+      <c r="D51" s="46">
+        <f>D47-D48</f>
+        <v>37772</v>
+      </c>
+      <c r="E51" s="46">
+        <f>E47-E48</f>
+        <v>43678</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -4723,864 +4923,671 @@
       <c r="DO51" s="15"/>
       <c r="DP51" s="15"/>
     </row>
-    <row r="52" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="45">
-        <f>'Reports RMB'!E39</f>
-        <v>2901</v>
-      </c>
-      <c r="C52" s="45">
-        <f>'Reports RMB'!I39</f>
-        <v>3852</v>
-      </c>
-      <c r="D52" s="45">
-        <f>'Reports RMB'!M39</f>
-        <v>6833</v>
-      </c>
-      <c r="E52" s="45">
-        <f>'Reports RMB'!Q39</f>
-        <v>9000</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="15"/>
-      <c r="AI52" s="15"/>
-      <c r="AJ52" s="15"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="15"/>
-      <c r="AQ52" s="15"/>
-      <c r="AR52" s="15"/>
-      <c r="AS52" s="15"/>
-      <c r="AT52" s="15"/>
-      <c r="AU52" s="15"/>
-      <c r="AV52" s="15"/>
-      <c r="AW52" s="15"/>
-      <c r="AX52" s="15"/>
-      <c r="AY52" s="15"/>
-      <c r="AZ52" s="15"/>
-      <c r="BA52" s="15"/>
-      <c r="BB52" s="15"/>
-      <c r="BC52" s="15"/>
-      <c r="BD52" s="15"/>
-      <c r="BE52" s="15"/>
-      <c r="BF52" s="15"/>
-      <c r="BG52" s="15"/>
-      <c r="BH52" s="15"/>
-      <c r="BI52" s="15"/>
-      <c r="BJ52" s="15"/>
-      <c r="BK52" s="15"/>
-      <c r="BL52" s="15"/>
-      <c r="BM52" s="15"/>
-      <c r="BN52" s="15"/>
-      <c r="BO52" s="15"/>
-      <c r="BP52" s="15"/>
-      <c r="BQ52" s="15"/>
-      <c r="BR52" s="15"/>
-      <c r="BS52" s="15"/>
-      <c r="BT52" s="15"/>
-      <c r="BU52" s="15"/>
-      <c r="BV52" s="15"/>
-      <c r="BW52" s="15"/>
-      <c r="BX52" s="15"/>
-      <c r="BY52" s="15"/>
-      <c r="BZ52" s="15"/>
-      <c r="CA52" s="15"/>
-      <c r="CB52" s="15"/>
-      <c r="CC52" s="15"/>
-      <c r="CD52" s="15"/>
-      <c r="CE52" s="15"/>
-      <c r="CF52" s="15"/>
-      <c r="CG52" s="15"/>
-      <c r="CH52" s="15"/>
-      <c r="CI52" s="15"/>
-      <c r="CJ52" s="15"/>
-      <c r="CK52" s="15"/>
-      <c r="CL52" s="15"/>
-      <c r="CM52" s="15"/>
-      <c r="CN52" s="15"/>
-      <c r="CO52" s="15"/>
-      <c r="CP52" s="15"/>
-      <c r="CQ52" s="15"/>
-      <c r="CR52" s="15"/>
-      <c r="CS52" s="15"/>
-      <c r="CT52" s="15"/>
-      <c r="CU52" s="15"/>
-      <c r="CV52" s="15"/>
-      <c r="CW52" s="15"/>
-      <c r="CX52" s="15"/>
-      <c r="CY52" s="15"/>
-      <c r="CZ52" s="15"/>
-      <c r="DA52" s="15"/>
-      <c r="DB52" s="15"/>
-      <c r="DC52" s="15"/>
-      <c r="DD52" s="15"/>
-      <c r="DE52" s="15"/>
-      <c r="DF52" s="15"/>
-      <c r="DG52" s="15"/>
-      <c r="DH52" s="15"/>
-      <c r="DI52" s="15"/>
-      <c r="DJ52" s="15"/>
-      <c r="DK52" s="15"/>
-      <c r="DL52" s="15"/>
-      <c r="DM52" s="15"/>
-      <c r="DN52" s="15"/>
-      <c r="DO52" s="15"/>
-      <c r="DP52" s="15"/>
+    <row r="53" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A53" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="25">
+        <f>B28/B51</f>
+        <v>4.1194145584956864E-3</v>
+      </c>
+      <c r="C53" s="25">
+        <f>C28/C51</f>
+        <v>5.0443628575799294E-2</v>
+      </c>
+      <c r="D53" s="25">
+        <f>D28/D51</f>
+        <v>4.8475060891665783E-2</v>
+      </c>
+      <c r="E53" s="25">
+        <f>E28/E51</f>
+        <v>9.1052703878382713E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="46">
-        <f>B51-B50-B47</f>
-        <v>2132</v>
-      </c>
-      <c r="C54" s="46">
-        <f>C51-C50-C47</f>
-        <v>2729</v>
-      </c>
-      <c r="D54" s="46">
-        <f>D51-D50-D47</f>
-        <v>4533</v>
-      </c>
-      <c r="E54" s="46">
-        <f>E51-E50-E47</f>
-        <v>10729</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="15"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="15"/>
-      <c r="AJ54" s="15"/>
-      <c r="AK54" s="15"/>
-      <c r="AL54" s="15"/>
-      <c r="AM54" s="15"/>
-      <c r="AN54" s="15"/>
-      <c r="AO54" s="15"/>
-      <c r="AP54" s="15"/>
-      <c r="AQ54" s="15"/>
-      <c r="AR54" s="15"/>
-      <c r="AS54" s="15"/>
-      <c r="AT54" s="15"/>
-      <c r="AU54" s="15"/>
-      <c r="AV54" s="15"/>
-      <c r="AW54" s="15"/>
-      <c r="AX54" s="15"/>
-      <c r="AY54" s="15"/>
-      <c r="AZ54" s="15"/>
-      <c r="BA54" s="15"/>
-      <c r="BB54" s="15"/>
-      <c r="BC54" s="15"/>
-      <c r="BD54" s="15"/>
-      <c r="BE54" s="15"/>
-      <c r="BF54" s="15"/>
-      <c r="BG54" s="15"/>
-      <c r="BH54" s="15"/>
-      <c r="BI54" s="15"/>
-      <c r="BJ54" s="15"/>
-      <c r="BK54" s="15"/>
-      <c r="BL54" s="15"/>
-      <c r="BM54" s="15"/>
-      <c r="BN54" s="15"/>
-      <c r="BO54" s="15"/>
-      <c r="BP54" s="15"/>
-      <c r="BQ54" s="15"/>
-      <c r="BR54" s="15"/>
-      <c r="BS54" s="15"/>
-      <c r="BT54" s="15"/>
-      <c r="BU54" s="15"/>
-      <c r="BV54" s="15"/>
-      <c r="BW54" s="15"/>
-      <c r="BX54" s="15"/>
-      <c r="BY54" s="15"/>
-      <c r="BZ54" s="15"/>
-      <c r="CA54" s="15"/>
-      <c r="CB54" s="15"/>
-      <c r="CC54" s="15"/>
-      <c r="CD54" s="15"/>
-      <c r="CE54" s="15"/>
-      <c r="CF54" s="15"/>
-      <c r="CG54" s="15"/>
-      <c r="CH54" s="15"/>
-      <c r="CI54" s="15"/>
-      <c r="CJ54" s="15"/>
-      <c r="CK54" s="15"/>
-      <c r="CL54" s="15"/>
-      <c r="CM54" s="15"/>
-      <c r="CN54" s="15"/>
-      <c r="CO54" s="15"/>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
-      <c r="CR54" s="15"/>
-      <c r="CS54" s="15"/>
-      <c r="CT54" s="15"/>
-      <c r="CU54" s="15"/>
-      <c r="CV54" s="15"/>
-      <c r="CW54" s="15"/>
-      <c r="CX54" s="15"/>
-      <c r="CY54" s="15"/>
-      <c r="CZ54" s="15"/>
-      <c r="DA54" s="15"/>
-      <c r="DB54" s="15"/>
-      <c r="DC54" s="15"/>
-      <c r="DD54" s="15"/>
-      <c r="DE54" s="15"/>
-      <c r="DF54" s="15"/>
-      <c r="DG54" s="15"/>
-      <c r="DH54" s="15"/>
-      <c r="DI54" s="15"/>
-      <c r="DJ54" s="15"/>
-      <c r="DK54" s="15"/>
-      <c r="DL54" s="15"/>
-      <c r="DM54" s="15"/>
-      <c r="DN54" s="15"/>
-      <c r="DO54" s="15"/>
-      <c r="DP54" s="15"/>
+      <c r="A54" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="25">
+        <f>B28/B47</f>
+        <v>3.6116422349691947E-3</v>
+      </c>
+      <c r="C54" s="25">
+        <f>C28/C47</f>
+        <v>4.3966666666666668E-2</v>
+      </c>
+      <c r="D54" s="25">
+        <f>D28/D47</f>
+        <v>4.1049209729850912E-2</v>
+      </c>
+      <c r="E54" s="25">
+        <f>E28/E47</f>
+        <v>7.5496412164470936E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="46">
-        <f>B51-B52</f>
-        <v>20634</v>
-      </c>
-      <c r="C55" s="46">
-        <f>C51-C52</f>
-        <v>26148</v>
-      </c>
-      <c r="D55" s="46">
-        <f>D51-D52</f>
-        <v>37772</v>
-      </c>
-      <c r="E55" s="46">
-        <f>E51-E52</f>
-        <v>43678</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
-      <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="15"/>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="15"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="15"/>
-      <c r="AQ55" s="15"/>
-      <c r="AR55" s="15"/>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
-      <c r="BB55" s="15"/>
-      <c r="BC55" s="15"/>
-      <c r="BD55" s="15"/>
-      <c r="BE55" s="15"/>
-      <c r="BF55" s="15"/>
-      <c r="BG55" s="15"/>
-      <c r="BH55" s="15"/>
-      <c r="BI55" s="15"/>
-      <c r="BJ55" s="15"/>
-      <c r="BK55" s="15"/>
-      <c r="BL55" s="15"/>
-      <c r="BM55" s="15"/>
-      <c r="BN55" s="15"/>
-      <c r="BO55" s="15"/>
-      <c r="BP55" s="15"/>
-      <c r="BQ55" s="15"/>
-      <c r="BR55" s="15"/>
-      <c r="BS55" s="15"/>
-      <c r="BT55" s="15"/>
-      <c r="BU55" s="15"/>
-      <c r="BV55" s="15"/>
-      <c r="BW55" s="15"/>
-      <c r="BX55" s="15"/>
-      <c r="BY55" s="15"/>
-      <c r="BZ55" s="15"/>
-      <c r="CA55" s="15"/>
-      <c r="CB55" s="15"/>
-      <c r="CC55" s="15"/>
-      <c r="CD55" s="15"/>
-      <c r="CE55" s="15"/>
-      <c r="CF55" s="15"/>
-      <c r="CG55" s="15"/>
-      <c r="CH55" s="15"/>
-      <c r="CI55" s="15"/>
-      <c r="CJ55" s="15"/>
-      <c r="CK55" s="15"/>
-      <c r="CL55" s="15"/>
-      <c r="CM55" s="15"/>
-      <c r="CN55" s="15"/>
-      <c r="CO55" s="15"/>
-      <c r="CP55" s="15"/>
-      <c r="CQ55" s="15"/>
-      <c r="CR55" s="15"/>
-      <c r="CS55" s="15"/>
-      <c r="CT55" s="15"/>
-      <c r="CU55" s="15"/>
-      <c r="CV55" s="15"/>
-      <c r="CW55" s="15"/>
-      <c r="CX55" s="15"/>
-      <c r="CY55" s="15"/>
-      <c r="CZ55" s="15"/>
-      <c r="DA55" s="15"/>
-      <c r="DB55" s="15"/>
-      <c r="DC55" s="15"/>
-      <c r="DD55" s="15"/>
-      <c r="DE55" s="15"/>
-      <c r="DF55" s="15"/>
-      <c r="DG55" s="15"/>
-      <c r="DH55" s="15"/>
-      <c r="DI55" s="15"/>
-      <c r="DJ55" s="15"/>
-      <c r="DK55" s="15"/>
-      <c r="DL55" s="15"/>
-      <c r="DM55" s="15"/>
-      <c r="DN55" s="15"/>
-      <c r="DO55" s="15"/>
-      <c r="DP55" s="15"/>
-    </row>
-    <row r="57" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A57" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="25">
-        <f>B28/B55</f>
-        <v>4.1194145584956864E-3</v>
-      </c>
-      <c r="C57" s="25">
-        <f>C28/C55</f>
-        <v>5.0443628575799294E-2</v>
-      </c>
-      <c r="D57" s="25">
-        <f>D28/D55</f>
-        <v>4.8475060891665783E-2</v>
-      </c>
-      <c r="E57" s="25">
-        <f>E28/E55</f>
-        <v>9.1052703878382713E-2</v>
+      <c r="A55" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="25">
+        <f>B28/(B51-B46)</f>
+        <v>2.9668411867364748E-2</v>
+      </c>
+      <c r="C55" s="25">
+        <f>C28/(C51-C46)</f>
+        <v>0.16146407148977843</v>
+      </c>
+      <c r="D55" s="25">
+        <f>D28/(D51-D46)</f>
+        <v>9.67707837852122E-2</v>
+      </c>
+      <c r="E55" s="25">
+        <f>E28/(E51-E46)</f>
+        <v>0.15961631080430247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A56" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="25">
+        <f>B28/B50</f>
+        <v>3.9868667917448405E-2</v>
+      </c>
+      <c r="C56" s="25">
+        <f>C28/C50</f>
+        <v>0.48332722609014289</v>
+      </c>
+      <c r="D56" s="25">
+        <f>D28/D50</f>
+        <v>0.40392675932053829</v>
+      </c>
+      <c r="E56" s="25">
+        <f>E28/E50</f>
+        <v>0.37067760275887779</v>
       </c>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A58" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="25">
-        <f>B28/B51</f>
-        <v>3.6116422349691947E-3</v>
-      </c>
+      <c r="A58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="25"/>
       <c r="C58" s="25">
-        <f>C28/C51</f>
-        <v>4.3966666666666668E-2</v>
+        <f>C12/B12-1</f>
+        <v>0.46875</v>
       </c>
       <c r="D58" s="25">
-        <f>D28/D51</f>
-        <v>4.1049209729850912E-2</v>
+        <f>D12/C12-1</f>
+        <v>0.75801841854557006</v>
       </c>
       <c r="E58" s="25">
-        <f>E28/E51</f>
-        <v>7.5496412164470936E-2</v>
-      </c>
+        <f>E12/D12-1</f>
+        <v>0.29190751445086716</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A59" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="25">
-        <f>B28/(B55-B50)</f>
-        <v>2.9668411867364748E-2</v>
-      </c>
+      <c r="A59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="25">
-        <f>C28/(C55-C50)</f>
-        <v>0.16146407148977843</v>
+        <f>C13/B13-1</f>
+        <v>2.5327018493459632</v>
       </c>
       <c r="D59" s="25">
-        <f>D28/(D55-D50)</f>
-        <v>9.67707837852122E-2</v>
+        <f>D13/C13-1</f>
+        <v>0.71718590398365678</v>
       </c>
       <c r="E59" s="25">
-        <f>E28/(E55-E50)</f>
-        <v>0.15961631080430247</v>
-      </c>
+        <f>E13/D13-1</f>
+        <v>0.35935757305375859</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A60" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="25">
-        <f>B28/B54</f>
-        <v>3.9868667917448405E-2</v>
-      </c>
-      <c r="C60" s="25">
-        <f>C28/C54</f>
-        <v>0.48332722609014289</v>
-      </c>
-      <c r="D60" s="25">
-        <f>D28/D54</f>
-        <v>0.40392675932053829</v>
-      </c>
-      <c r="E60" s="25">
-        <f>E28/E54</f>
-        <v>0.37067760275887779</v>
+      <c r="A60" s="5"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25">
+        <f>C15/B15-1</f>
+        <v>0.5649717514124295</v>
+      </c>
+      <c r="D61" s="25">
+        <f>D15/C15-1</f>
+        <v>0.34296028880866447</v>
+      </c>
+      <c r="E61" s="25">
+        <f>E15/D15-1</f>
+        <v>0.40591397849462352</v>
+      </c>
+      <c r="F61" s="25">
+        <f>F15/E15-1</f>
+        <v>0.31141873804971354</v>
+      </c>
+      <c r="G61" s="25">
+        <f>G15/F15-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H61" s="25">
+        <f>H15/G15-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I61" s="25">
+        <f>I15/H15-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J61" s="25">
+        <f>J15/I15-1</f>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="25">
-        <f>C12/B12-1</f>
-        <v>0.46875</v>
+        <f>C16/B16-1</f>
+        <v>0.60897502228896272</v>
       </c>
       <c r="D62" s="25">
-        <f>D12/C12-1</f>
-        <v>0.75801841854557006</v>
+        <f>D16/C16-1</f>
+        <v>0.28737638717119385</v>
       </c>
       <c r="E62" s="25">
-        <f>E12/D12-1</f>
-        <v>0.29190751445086716</v>
-      </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+        <f>E16/D16-1</f>
+        <v>-4.7104411201154384E-2</v>
+      </c>
+      <c r="F62" s="25">
+        <f>F16/E16-1</f>
+        <v>-9.5374446458800222E-3</v>
+      </c>
+      <c r="G62" s="25">
+        <f>G16/F16-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="H62" s="25">
+        <f>H16/G16-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="I62" s="25">
+        <f>I16/H16-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="J62" s="25">
+        <f>J16/I16-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A63" s="5"/>
       <c r="B63" s="25"/>
-      <c r="C63" s="25">
-        <f>C13/B13-1</f>
-        <v>2.5327018493459632</v>
-      </c>
-      <c r="D63" s="25">
-        <f>D13/C13-1</f>
-        <v>0.71718590398365678</v>
-      </c>
-      <c r="E63" s="25">
-        <f>E13/D13-1</f>
-        <v>0.35935757305375859</v>
-      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
-        <v>92</v>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="25"/>
+      <c r="AJ63" s="25"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="25"/>
+      <c r="AM63" s="25"/>
+      <c r="AN63" s="25"/>
+      <c r="AO63" s="25"/>
+      <c r="AP63" s="25"/>
+      <c r="AQ63" s="25"/>
+      <c r="AR63" s="25"/>
+      <c r="AS63" s="25"/>
+      <c r="AT63" s="25"/>
+      <c r="AU63" s="25"/>
+      <c r="AV63" s="25"/>
+      <c r="AW63" s="25"/>
+      <c r="AX63" s="25"/>
+      <c r="AY63" s="25"/>
+      <c r="AZ63" s="25"/>
+      <c r="BA63" s="25"/>
+      <c r="BB63" s="25"/>
+      <c r="BC63" s="25"/>
+      <c r="BD63" s="25"/>
+      <c r="BE63" s="25"/>
+      <c r="BF63" s="25"/>
+      <c r="BG63" s="25"/>
+      <c r="BH63" s="25"/>
+      <c r="BI63" s="25"/>
+      <c r="BJ63" s="25"/>
+      <c r="BK63" s="25"/>
+      <c r="BL63" s="25"/>
+      <c r="BM63" s="25"/>
+      <c r="BN63" s="25"/>
+      <c r="BO63" s="25"/>
+      <c r="BP63" s="25"/>
+      <c r="BQ63" s="25"/>
+      <c r="BR63" s="25"/>
+      <c r="BS63" s="25"/>
+      <c r="BT63" s="25"/>
+      <c r="BU63" s="25"/>
+      <c r="BV63" s="25"/>
+      <c r="BW63" s="25"/>
+      <c r="BX63" s="25"/>
+      <c r="BY63" s="25"/>
+      <c r="BZ63" s="25"/>
+      <c r="CA63" s="25"/>
+      <c r="CB63" s="25"/>
+      <c r="CC63" s="25"/>
+      <c r="CD63" s="25"/>
+      <c r="CE63" s="25"/>
+      <c r="CF63" s="25"/>
+      <c r="CG63" s="25"/>
+      <c r="CH63" s="25"/>
+      <c r="CI63" s="25"/>
+      <c r="CJ63" s="25"/>
+      <c r="CK63" s="25"/>
+      <c r="CL63" s="25"/>
+      <c r="CM63" s="25"/>
+      <c r="CN63" s="25"/>
+      <c r="CO63" s="25"/>
+      <c r="CP63" s="25"/>
+      <c r="CQ63" s="25"/>
+      <c r="CR63" s="25"/>
+      <c r="CS63" s="25"/>
+      <c r="CT63" s="25"/>
+      <c r="CU63" s="25"/>
+      <c r="CV63" s="25"/>
+      <c r="CW63" s="25"/>
+      <c r="CX63" s="25"/>
+      <c r="CY63" s="25"/>
+      <c r="CZ63" s="25"/>
+      <c r="DA63" s="25"/>
+      <c r="DB63" s="25"/>
+      <c r="DC63" s="25"/>
+      <c r="DD63" s="25"/>
+      <c r="DE63" s="25"/>
+      <c r="DF63" s="25"/>
+      <c r="DG63" s="25"/>
+      <c r="DH63" s="25"/>
+      <c r="DI63" s="25"/>
+      <c r="DJ63" s="25"/>
+      <c r="DK63" s="25"/>
+      <c r="DL63" s="25"/>
+      <c r="DM63" s="25"/>
+      <c r="DN63" s="25"/>
+      <c r="DO63" s="25"/>
+      <c r="DP63" s="25"/>
+    </row>
+    <row r="64" spans="1:120" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="15">
+        <f>'Reports RMB'!E55</f>
+        <v>740</v>
+      </c>
+      <c r="C64" s="15">
+        <f>'Reports RMB'!I55</f>
+        <v>812</v>
+      </c>
+      <c r="D64" s="15">
+        <f>'Reports RMB'!M55</f>
+        <v>872</v>
+      </c>
+      <c r="E64" s="15">
+        <f>D64*1.05</f>
+        <v>915.6</v>
+      </c>
+      <c r="F64" s="15">
+        <f>'Reports RMB'!U55</f>
+        <v>857.34</v>
+      </c>
+      <c r="G64" s="15">
+        <f>F64*0.95</f>
+        <v>814.47299999999996</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" ref="H64:J64" si="52">G64*0.95</f>
+        <v>773.74934999999994</v>
+      </c>
+      <c r="I64" s="15">
+        <f t="shared" si="52"/>
+        <v>735.06188249999991</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" si="52"/>
+        <v>698.30878837499984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A65" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="25">
-        <f>C15/B15-1</f>
-        <v>0.5649717514124295</v>
+        <f>C64/B64-1</f>
+        <v>9.7297297297297192E-2</v>
       </c>
       <c r="D65" s="25">
-        <f>D15/C15-1</f>
-        <v>0.34296028880866447</v>
+        <f>D64/C64-1</f>
+        <v>7.3891625615763568E-2</v>
       </c>
       <c r="E65" s="25">
-        <f>E15/D15-1</f>
-        <v>0.40591397849462352</v>
+        <f t="shared" ref="E65:J65" si="53">E64/D64-1</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F65" s="25">
-        <f>F15/E15-1</f>
-        <v>0.25</v>
+        <f t="shared" si="53"/>
+        <v>-6.3630406290956731E-2</v>
       </c>
       <c r="G65" s="25">
-        <f>G15/F15-1</f>
-        <v>0.25</v>
+        <f t="shared" si="53"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="H65" s="25">
-        <f>H15/G15-1</f>
-        <v>0.25</v>
+        <f t="shared" si="53"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="I65" s="25">
-        <f>I15/H15-1</f>
-        <v>0.25</v>
+        <f t="shared" si="53"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="J65" s="25">
-        <f>J15/I15-1</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25">
-        <f>C16/B16-1</f>
-        <v>0.60897502228896272</v>
-      </c>
-      <c r="D66" s="25">
-        <f>D16/C16-1</f>
-        <v>0.28737638717119385</v>
-      </c>
-      <c r="E66" s="25">
-        <f>E16/D16-1</f>
-        <v>-4.7104411201154384E-2</v>
-      </c>
-      <c r="F66" s="25">
-        <f>F16/E16-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="G66" s="25">
-        <f>G16/F16-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="H66" s="25">
-        <f>H16/G16-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="I66" s="25">
-        <f>I16/H16-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="J66" s="25">
-        <f>J16/I16-1</f>
+        <f t="shared" si="53"/>
         <v>-5.0000000000000155E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
-      <c r="AD67" s="25"/>
-      <c r="AE67" s="25"/>
-      <c r="AF67" s="25"/>
-      <c r="AG67" s="25"/>
-      <c r="AH67" s="25"/>
-      <c r="AI67" s="25"/>
-      <c r="AJ67" s="25"/>
-      <c r="AK67" s="25"/>
-      <c r="AL67" s="25"/>
-      <c r="AM67" s="25"/>
-      <c r="AN67" s="25"/>
-      <c r="AO67" s="25"/>
-      <c r="AP67" s="25"/>
-      <c r="AQ67" s="25"/>
-      <c r="AR67" s="25"/>
-      <c r="AS67" s="25"/>
-      <c r="AT67" s="25"/>
-      <c r="AU67" s="25"/>
-      <c r="AV67" s="25"/>
-      <c r="AW67" s="25"/>
-      <c r="AX67" s="25"/>
-      <c r="AY67" s="25"/>
-      <c r="AZ67" s="25"/>
-      <c r="BA67" s="25"/>
-      <c r="BB67" s="25"/>
-      <c r="BC67" s="25"/>
-      <c r="BD67" s="25"/>
-      <c r="BE67" s="25"/>
-      <c r="BF67" s="25"/>
-      <c r="BG67" s="25"/>
-      <c r="BH67" s="25"/>
-      <c r="BI67" s="25"/>
-      <c r="BJ67" s="25"/>
-      <c r="BK67" s="25"/>
-      <c r="BL67" s="25"/>
-      <c r="BM67" s="25"/>
-      <c r="BN67" s="25"/>
-      <c r="BO67" s="25"/>
-      <c r="BP67" s="25"/>
-      <c r="BQ67" s="25"/>
-      <c r="BR67" s="25"/>
-      <c r="BS67" s="25"/>
-      <c r="BT67" s="25"/>
-      <c r="BU67" s="25"/>
-      <c r="BV67" s="25"/>
-      <c r="BW67" s="25"/>
-      <c r="BX67" s="25"/>
-      <c r="BY67" s="25"/>
-      <c r="BZ67" s="25"/>
-      <c r="CA67" s="25"/>
-      <c r="CB67" s="25"/>
-      <c r="CC67" s="25"/>
-      <c r="CD67" s="25"/>
-      <c r="CE67" s="25"/>
-      <c r="CF67" s="25"/>
-      <c r="CG67" s="25"/>
-      <c r="CH67" s="25"/>
-      <c r="CI67" s="25"/>
-      <c r="CJ67" s="25"/>
-      <c r="CK67" s="25"/>
-      <c r="CL67" s="25"/>
-      <c r="CM67" s="25"/>
-      <c r="CN67" s="25"/>
-      <c r="CO67" s="25"/>
-      <c r="CP67" s="25"/>
-      <c r="CQ67" s="25"/>
-      <c r="CR67" s="25"/>
-      <c r="CS67" s="25"/>
-      <c r="CT67" s="25"/>
-      <c r="CU67" s="25"/>
-      <c r="CV67" s="25"/>
-      <c r="CW67" s="25"/>
-      <c r="CX67" s="25"/>
-      <c r="CY67" s="25"/>
-      <c r="CZ67" s="25"/>
-      <c r="DA67" s="25"/>
-      <c r="DB67" s="25"/>
-      <c r="DC67" s="25"/>
-      <c r="DD67" s="25"/>
-      <c r="DE67" s="25"/>
-      <c r="DF67" s="25"/>
-      <c r="DG67" s="25"/>
-      <c r="DH67" s="25"/>
-      <c r="DI67" s="25"/>
-      <c r="DJ67" s="25"/>
-      <c r="DK67" s="25"/>
-      <c r="DL67" s="25"/>
-      <c r="DM67" s="25"/>
-      <c r="DN67" s="25"/>
-      <c r="DO67" s="25"/>
-      <c r="DP67" s="25"/>
-    </row>
-    <row r="68" spans="1:120" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="15">
-        <f>'Reports RMB'!E56</f>
-        <v>740</v>
-      </c>
-      <c r="C68" s="15">
-        <f>'Reports RMB'!I56</f>
-        <v>812</v>
-      </c>
-      <c r="D68" s="15">
-        <f>'Reports RMB'!M56</f>
-        <v>872</v>
-      </c>
-      <c r="E68" s="15">
-        <f>D68*1.05</f>
-        <v>915.6</v>
-      </c>
-      <c r="F68" s="15">
-        <f t="shared" ref="F68:J68" si="61">E68*1.05</f>
-        <v>961.38000000000011</v>
-      </c>
-      <c r="G68" s="15">
-        <f t="shared" si="61"/>
-        <v>1009.4490000000002</v>
-      </c>
-      <c r="H68" s="15">
-        <f t="shared" si="61"/>
-        <v>1059.9214500000003</v>
-      </c>
-      <c r="I68" s="15">
-        <f t="shared" si="61"/>
-        <v>1112.9175225000004</v>
-      </c>
-      <c r="J68" s="15">
-        <f t="shared" si="61"/>
-        <v>1168.5633986250004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A69" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25">
-        <f>C68/B68-1</f>
-        <v>9.7297297297297192E-2</v>
-      </c>
-      <c r="D69" s="25">
-        <f>D68/C68-1</f>
-        <v>7.3891625615763568E-2</v>
-      </c>
-      <c r="E69" s="25">
-        <f t="shared" ref="E69:J69" si="62">E68/D68-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="F69" s="25">
-        <f t="shared" si="62"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G69" s="25">
-        <f t="shared" si="62"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="H69" s="25">
-        <f t="shared" si="62"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="I69" s="25">
-        <f t="shared" si="62"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="J69" s="25">
-        <f t="shared" si="62"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="E70" s="55"/>
-    </row>
-    <row r="71" spans="1:120" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="25">
-        <f>B15/B68</f>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E66" s="55"/>
+    </row>
+    <row r="67" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="25">
+        <f>B15/B64</f>
         <v>2.3918918918918917E-2</v>
       </c>
-      <c r="C71" s="25">
-        <f>C15/C68</f>
+      <c r="C67" s="25">
+        <f>C15/C64</f>
         <v>3.4113300492610833E-2</v>
       </c>
-      <c r="D71" s="25">
-        <f>D15/D68</f>
+      <c r="D67" s="25">
+        <f>D15/D64</f>
         <v>4.2660550458715599E-2</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E67" s="25">
         <v>0.05</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F67" s="25">
         <v>0.06</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G67" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H71" s="25">
+      <c r="H67" s="25">
         <v>0.08</v>
       </c>
-      <c r="I71" s="25">
+      <c r="I67" s="25">
         <v>0.09</v>
       </c>
-      <c r="J71" s="25">
+      <c r="J67" s="25">
         <v>0.09</v>
       </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6.48</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6.8784999999999998</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6.9622999999999999</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+    </row>
+    <row r="70" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="16">
+        <f>B18/B69</f>
+        <v>628.386167146974</v>
+      </c>
+      <c r="C70" s="16">
+        <f>C18/C69</f>
+        <v>1694.5987654320986</v>
+      </c>
+      <c r="D70" s="16">
+        <f>D18/D69</f>
+        <v>2760.0494293814058</v>
+      </c>
+      <c r="E70" s="16">
+        <f>E18/E69</f>
+        <v>3653.1031412033381</v>
+      </c>
+      <c r="F70" s="16">
+        <f>F18/$C$9</f>
+        <v>5098.2262811298779</v>
+      </c>
+      <c r="G70" s="16">
+        <f>G18/$C$9</f>
+        <v>6296.309457195398</v>
+      </c>
+      <c r="H70" s="16">
+        <f>H18/$C$9</f>
+        <v>7775.9421796363176</v>
+      </c>
+      <c r="I70" s="16">
+        <f>I18/$C$9</f>
+        <v>9603.2885918508509</v>
+      </c>
+      <c r="J70" s="16">
+        <f>J18/$C$9</f>
+        <v>11860.061410935799</v>
+      </c>
+      <c r="K70" s="16">
+        <f>K18/$C$9</f>
+        <v>13046.067552029381</v>
+      </c>
+      <c r="L70" s="16">
+        <f>L18/$C$9</f>
+        <v>14350.674307232322</v>
+      </c>
+      <c r="M70" s="16">
+        <f>M18/$C$9</f>
+        <v>15785.741737955555</v>
+      </c>
+      <c r="N70" s="16">
+        <f>N18/$C$9</f>
+        <v>17364.31591175111</v>
+      </c>
+      <c r="O70" s="16">
+        <f>O18/$C$9</f>
+        <v>19100.747502926224</v>
+      </c>
+      <c r="P70" s="16">
+        <f>P18/$C$9</f>
+        <v>21010.822253218845</v>
+      </c>
+      <c r="Q70" s="16">
+        <f>Q18/$C$9</f>
+        <v>23111.904478540735</v>
+      </c>
+      <c r="R70" s="16">
+        <f>R18/$C$9</f>
+        <v>25423.094926394806</v>
+      </c>
+      <c r="S70" s="16">
+        <f>S18/$C$9</f>
+        <v>27965.40441903429</v>
+      </c>
+      <c r="T70" s="16">
+        <f>T18/$C$9</f>
+        <v>30761.944860937721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="16">
+        <f>B28/B69</f>
+        <v>12.247838616714697</v>
+      </c>
+      <c r="C71" s="16">
+        <f>C28/C69</f>
+        <v>203.54938271604937</v>
+      </c>
+      <c r="D71" s="16">
+        <f>D28/D69</f>
+        <v>266.1917569237479</v>
+      </c>
+      <c r="E71" s="16">
+        <f>E28/E69</f>
+        <v>571.21928098473211</v>
+      </c>
+      <c r="F71" s="16">
+        <f>F28/$C$9</f>
+        <v>1172.1063109714526</v>
+      </c>
+      <c r="G71" s="16">
+        <f>G28/$C$9</f>
+        <v>1303.5284370851939</v>
+      </c>
+      <c r="H71" s="16">
+        <f>H28/$C$9</f>
+        <v>1665.5538177428693</v>
+      </c>
+      <c r="I71" s="16">
+        <f>I28/$C$9</f>
+        <v>2117.9160406535716</v>
+      </c>
+      <c r="J71" s="16">
+        <f>J28/$C$9</f>
+        <v>2682.13076724645</v>
+      </c>
+      <c r="K71" s="16">
+        <f>K28/$C$9</f>
+        <v>3008.1844649510617</v>
+      </c>
+      <c r="L71" s="16">
+        <f>L28/$C$9</f>
+        <v>3369.2752172341447</v>
+      </c>
+      <c r="M71" s="16">
+        <f>M28/$C$9</f>
+        <v>3769.0204879078497</v>
+      </c>
+      <c r="N71" s="16">
+        <f>N28/$C$9</f>
+        <v>4211.4050420431922</v>
+      </c>
+      <c r="O71" s="16">
+        <f>O28/$C$9</f>
+        <v>4700.8179515781476</v>
+      </c>
+      <c r="P71" s="16">
+        <f>P28/$C$9</f>
+        <v>5242.0933152221978</v>
+      </c>
+      <c r="Q71" s="16">
+        <f>Q28/$C$9</f>
+        <v>5840.5550647731507</v>
+      </c>
+      <c r="R71" s="16">
+        <f>R28/$C$9</f>
+        <v>6502.0662672078261</v>
+      </c>
+      <c r="S71" s="16">
+        <f>S28/$C$9</f>
+        <v>7233.0833728804919</v>
+      </c>
+      <c r="T71" s="16">
+        <f>T28/$C$9</f>
+        <v>8040.7159052340176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5594,13 +5601,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomRight" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5619,9 +5626,9 @@
     <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
-        <v>52</v>
+    <row r="1" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="61" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>21</v>
@@ -5660,23 +5667,44 @@
         <v>44</v>
       </c>
       <c r="N1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="29" t="s">
-        <v>61</v>
-      </c>
       <c r="R1" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
+        <v>106</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60"/>
       <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
@@ -5714,24 +5742,30 @@
         <v>48</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" s="68">
+        <v>102</v>
+      </c>
+      <c r="R2" s="66">
         <v>43921</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="70">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="70">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -5778,10 +5812,16 @@
       <c r="R3" s="56">
         <v>2044</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="7">
+        <v>2221</v>
+      </c>
+      <c r="T3" s="7">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
@@ -5828,8 +5868,14 @@
       <c r="R4" s="56">
         <v>4267</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="7">
+        <v>4711</v>
+      </c>
+      <c r="T4" s="7">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -5841,18 +5887,16 @@
       <c r="J5" s="28"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="48" t="s">
-        <v>101</v>
-      </c>
+      <c r="M5" s="48"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="56"/>
     </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
@@ -5913,10 +5957,22 @@
         <f>42.7+12.8</f>
         <v>55.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="7">
+        <f>47.1+12.5</f>
+        <v>59.6</v>
+      </c>
+      <c r="T6" s="7">
+        <f>51.7+10.5</f>
+        <v>62.2</v>
+      </c>
+      <c r="U6" s="7">
+        <f>U55*0.08</f>
+        <v>68.58720000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -5977,8 +6033,20 @@
         <f>SUM(R3:R4)/R6</f>
         <v>113.71171171171171</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="32">
+        <f t="shared" ref="S7:T7" si="4">SUM(S3:S4)/S6</f>
+        <v>116.30872483221476</v>
+      </c>
+      <c r="T7" s="32">
+        <f t="shared" si="4"/>
+        <v>121.78456591639871</v>
+      </c>
+      <c r="U7" s="7">
+        <f>P7*0.95</f>
+        <v>129.86659663865549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5997,7 +6065,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="56"/>
     </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -6005,63 +6073,75 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30">
-        <f t="shared" ref="E9:M9" si="4">SUM(E3:E4)</f>
+        <f t="shared" ref="E9:M9" si="5">SUM(E3:E4)</f>
         <v>2001</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2105</v>
       </c>
       <c r="G9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2380</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2910</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3586</v>
       </c>
       <c r="J9" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4116</v>
       </c>
       <c r="K9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4503</v>
       </c>
       <c r="L9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4969</v>
       </c>
       <c r="M9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5397</v>
       </c>
       <c r="N9" s="31">
-        <f t="shared" ref="N9" si="5">SUM(N3:N4)</f>
+        <f t="shared" ref="N9" si="6">SUM(N3:N4)</f>
         <v>5736</v>
       </c>
       <c r="O9" s="30">
-        <f t="shared" ref="O9" si="6">SUM(O3:O4)</f>
+        <f t="shared" ref="O9" si="7">SUM(O3:O4)</f>
         <v>5898</v>
       </c>
       <c r="P9" s="30">
-        <f t="shared" ref="P9" si="7">SUM(P3:P4)</f>
+        <f t="shared" ref="P9" si="8">SUM(P3:P4)</f>
         <v>6507</v>
       </c>
       <c r="Q9" s="30">
-        <f t="shared" ref="Q9:R9" si="8">SUM(Q3:Q4)</f>
+        <f t="shared" ref="Q9:R9" si="9">SUM(Q3:Q4)</f>
         <v>7293</v>
       </c>
       <c r="R9" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6311</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="30">
+        <f t="shared" ref="S9:T9" si="10">SUM(S3:S4)</f>
+        <v>6932</v>
+      </c>
+      <c r="T9" s="30">
+        <f>T6*T7</f>
+        <v>7575</v>
+      </c>
+      <c r="U9" s="30">
+        <f>U6*U7</f>
+        <v>8907.1862369747942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -6110,8 +6190,18 @@
       <c r="R10" s="56">
         <v>4334</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="7">
+        <v>4762</v>
+      </c>
+      <c r="T10" s="7">
+        <v>5117</v>
+      </c>
+      <c r="U10" s="7">
+        <f>U9-U11</f>
+        <v>6016.9071913663392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -6119,23 +6209,23 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="32">
-        <f t="shared" ref="E11:H11" si="9">E9-E10</f>
+        <f t="shared" ref="E11:H11" si="11">E9-E10</f>
         <v>684</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>679</v>
       </c>
       <c r="G11" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>703</v>
       </c>
       <c r="H11" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034</v>
       </c>
       <c r="I11" s="32">
-        <f t="shared" ref="I11" si="10">I9-I10</f>
+        <f t="shared" ref="I11" si="12">I9-I10</f>
         <v>1394</v>
       </c>
       <c r="J11" s="33">
@@ -6147,11 +6237,11 @@
         <v>1795</v>
       </c>
       <c r="L11" s="32">
-        <f t="shared" ref="L11:M11" si="11">L9-L10</f>
+        <f t="shared" ref="L11:M11" si="13">L9-L10</f>
         <v>1963</v>
       </c>
       <c r="M11" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1836</v>
       </c>
       <c r="N11" s="33">
@@ -6163,19 +6253,31 @@
         <v>1941</v>
       </c>
       <c r="P11" s="32">
-        <f t="shared" ref="P11" si="12">P9-P10</f>
+        <f t="shared" ref="P11" si="14">P9-P10</f>
         <v>2211</v>
       </c>
       <c r="Q11" s="32">
-        <f t="shared" ref="Q11:R11" si="13">Q9-Q10</f>
+        <f t="shared" ref="Q11:R11" si="15">Q9-Q10</f>
         <v>2488</v>
       </c>
       <c r="R11" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1977</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="32">
+        <f t="shared" ref="S11:T11" si="16">S9-S10</f>
+        <v>2170</v>
+      </c>
+      <c r="T11" s="32">
+        <f t="shared" si="16"/>
+        <v>2458</v>
+      </c>
+      <c r="U11" s="7">
+        <f>U9*T24</f>
+        <v>2890.2790456084545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -6224,8 +6326,18 @@
       <c r="R12" s="56">
         <v>481</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="7">
+        <v>579</v>
+      </c>
+      <c r="T12" s="7">
+        <v>642</v>
+      </c>
+      <c r="U12" s="7">
+        <f>Q12*1.25</f>
+        <v>838.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -6274,8 +6386,18 @@
       <c r="R13" s="56">
         <v>681</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="7">
+        <v>724</v>
+      </c>
+      <c r="T13" s="7">
+        <v>790</v>
+      </c>
+      <c r="U13" s="7">
+        <f>Q13*1.1</f>
+        <v>821.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -6283,63 +6405,75 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="32">
-        <f>SUM(E12:E13)</f>
+        <f t="shared" ref="E14:U14" si="17">SUM(E12:E13)</f>
         <v>490</v>
       </c>
       <c r="F14" s="33">
-        <f>SUM(F12:F13)</f>
+        <f t="shared" si="17"/>
         <v>456</v>
       </c>
       <c r="G14" s="32">
-        <f>SUM(G12:G13)</f>
+        <f t="shared" si="17"/>
         <v>524</v>
       </c>
       <c r="H14" s="32">
-        <f>SUM(H12:H13)</f>
+        <f t="shared" si="17"/>
         <v>599</v>
       </c>
       <c r="I14" s="32">
-        <f>SUM(I12:I13)</f>
+        <f t="shared" si="17"/>
         <v>855</v>
       </c>
       <c r="J14" s="33">
-        <f>SUM(J12:J13)</f>
+        <f t="shared" si="17"/>
         <v>810</v>
       </c>
       <c r="K14" s="32">
-        <f>SUM(K12:K13)</f>
+        <f t="shared" si="17"/>
         <v>833</v>
       </c>
       <c r="L14" s="32">
-        <f>SUM(L12:L13)</f>
+        <f t="shared" si="17"/>
         <v>977</v>
       </c>
       <c r="M14" s="32">
-        <f>SUM(M12:M13)</f>
+        <f t="shared" si="17"/>
         <v>1352</v>
       </c>
       <c r="N14" s="33">
-        <f>SUM(N12:N13)</f>
+        <f t="shared" si="17"/>
         <v>1039</v>
       </c>
       <c r="O14" s="32">
-        <f>SUM(O12:O13)</f>
+        <f t="shared" si="17"/>
         <v>1050</v>
       </c>
       <c r="P14" s="32">
-        <f>SUM(P12:P13)</f>
+        <f t="shared" si="17"/>
         <v>1237</v>
       </c>
       <c r="Q14" s="32">
-        <f>SUM(Q12:Q13)</f>
+        <f t="shared" si="17"/>
         <v>1418</v>
       </c>
       <c r="R14" s="33">
-        <f>SUM(R12:R13)</f>
+        <f t="shared" si="17"/>
         <v>1162</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="32">
+        <f t="shared" si="17"/>
+        <v>1303</v>
+      </c>
+      <c r="T14" s="32">
+        <f t="shared" si="17"/>
+        <v>1432</v>
+      </c>
+      <c r="U14" s="32">
+        <f t="shared" si="17"/>
+        <v>1660.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -6347,63 +6481,75 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="32">
-        <f>E11-E14</f>
+        <f t="shared" ref="E15:U15" si="18">E11-E14</f>
         <v>194</v>
       </c>
       <c r="F15" s="33">
-        <f>F11-F14</f>
+        <f t="shared" si="18"/>
         <v>223</v>
       </c>
       <c r="G15" s="32">
-        <f>G11-G14</f>
+        <f t="shared" si="18"/>
         <v>179</v>
       </c>
       <c r="H15" s="32">
-        <f>H11-H14</f>
+        <f t="shared" si="18"/>
         <v>435</v>
       </c>
       <c r="I15" s="32">
-        <f>I11-I14</f>
+        <f t="shared" si="18"/>
         <v>539</v>
       </c>
       <c r="J15" s="33">
-        <f>J11-J14</f>
+        <f t="shared" si="18"/>
         <v>873</v>
       </c>
       <c r="K15" s="32">
-        <f>K11-K14</f>
+        <f t="shared" si="18"/>
         <v>962</v>
       </c>
       <c r="L15" s="32">
-        <f>L11-L14</f>
+        <f t="shared" si="18"/>
         <v>986</v>
       </c>
       <c r="M15" s="32">
-        <f>M11-M14</f>
+        <f t="shared" si="18"/>
         <v>484</v>
       </c>
       <c r="N15" s="33">
-        <f>N11-N14</f>
+        <f t="shared" si="18"/>
         <v>994</v>
       </c>
       <c r="O15" s="32">
-        <f>O11-O14</f>
+        <f t="shared" si="18"/>
         <v>891</v>
       </c>
       <c r="P15" s="32">
-        <f>P11-P14</f>
+        <f t="shared" si="18"/>
         <v>974</v>
       </c>
       <c r="Q15" s="32">
-        <f>Q11-Q14</f>
+        <f t="shared" si="18"/>
         <v>1070</v>
       </c>
       <c r="R15" s="33">
-        <f>R11-R14</f>
+        <f t="shared" si="18"/>
         <v>815</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="32">
+        <f t="shared" si="18"/>
+        <v>867</v>
+      </c>
+      <c r="T15" s="32">
+        <f t="shared" si="18"/>
+        <v>1026</v>
+      </c>
+      <c r="U15" s="32">
+        <f t="shared" si="18"/>
+        <v>1229.8290456084544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -6466,8 +6612,20 @@
         <f>174+58-11-20</f>
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="7">
+        <f>153+87-8-17</f>
+        <v>215</v>
+      </c>
+      <c r="T16" s="7">
+        <f>139+95+33-42</f>
+        <v>225</v>
+      </c>
+      <c r="U16" s="7">
+        <f>T16</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -6475,19 +6633,19 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="32">
-        <f t="shared" ref="E17" si="14">E15+E16</f>
+        <f t="shared" ref="E17" si="19">E15+E16</f>
         <v>200</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" ref="F17:G17" si="15">F15+F16</f>
+        <f t="shared" ref="F17:G17" si="20">F15+F16</f>
         <v>251</v>
       </c>
       <c r="G17" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>227</v>
       </c>
       <c r="H17" s="32">
-        <f t="shared" ref="H17:J17" si="16">H15+H16</f>
+        <f t="shared" ref="H17:J17" si="21">H15+H16</f>
         <v>472</v>
       </c>
       <c r="I17" s="32">
@@ -6495,11 +6653,11 @@
         <v>647</v>
       </c>
       <c r="J17" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>925</v>
       </c>
       <c r="K17" s="32">
-        <f t="shared" ref="K17" si="17">K15+K16</f>
+        <f t="shared" ref="K17" si="22">K15+K16</f>
         <v>998</v>
       </c>
       <c r="L17" s="32">
@@ -6511,11 +6669,11 @@
         <v>-970</v>
       </c>
       <c r="N17" s="33">
-        <f t="shared" ref="N17" si="18">N15+N16</f>
+        <f t="shared" ref="N17" si="23">N15+N16</f>
         <v>1125</v>
       </c>
       <c r="O17" s="32">
-        <f t="shared" ref="O17" si="19">O15+O16</f>
+        <f t="shared" ref="O17" si="24">O15+O16</f>
         <v>1060</v>
       </c>
       <c r="P17" s="32">
@@ -6530,8 +6688,20 @@
         <f>R15+R16</f>
         <v>1016</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="32">
+        <f>S15+S16</f>
+        <v>1082</v>
+      </c>
+      <c r="T17" s="32">
+        <f>T15+T16</f>
+        <v>1251</v>
+      </c>
+      <c r="U17" s="32">
+        <f>U15+U16</f>
+        <v>1454.8290456084544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -6580,8 +6750,18 @@
       <c r="R18" s="56">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="7">
+        <v>139</v>
+      </c>
+      <c r="T18" s="7">
+        <v>116</v>
+      </c>
+      <c r="U18" s="7">
+        <f>U17*T26</f>
+        <v>134.90021526025637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>14</v>
       </c>
@@ -6589,31 +6769,31 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19:M19" si="20">E17-E18</f>
+        <f t="shared" ref="E19:M19" si="25">E17-E18</f>
         <v>159</v>
       </c>
       <c r="F19" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>207</v>
       </c>
       <c r="G19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>188</v>
       </c>
       <c r="H19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>390</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>534</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>840</v>
       </c>
       <c r="K19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>903</v>
       </c>
       <c r="L19" s="30">
@@ -6621,15 +6801,15 @@
         <v>964</v>
       </c>
       <c r="M19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-876</v>
       </c>
       <c r="N19" s="31">
-        <f t="shared" ref="N19" si="21">N17-N18</f>
+        <f t="shared" ref="N19" si="26">N17-N18</f>
         <v>986</v>
       </c>
       <c r="O19" s="30">
-        <f t="shared" ref="O19" si="22">O17-O18</f>
+        <f t="shared" ref="O19" si="27">O17-O18</f>
         <v>928</v>
       </c>
       <c r="P19" s="30">
@@ -6637,79 +6817,103 @@
         <v>1023</v>
       </c>
       <c r="Q19" s="30">
-        <f t="shared" ref="Q19:R19" si="23">Q17-Q18</f>
+        <f t="shared" ref="Q19:R19" si="28">Q17-Q18</f>
         <v>1040</v>
       </c>
       <c r="R19" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>886</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="30">
+        <f>S17-S18</f>
+        <v>943</v>
+      </c>
+      <c r="T19" s="30">
+        <f>T17-T18</f>
+        <v>1135</v>
+      </c>
+      <c r="U19" s="30">
+        <f>U17-U18</f>
+        <v>1319.9288303481981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66">
-        <f t="shared" ref="E20:H20" si="24">IFERROR(E19/E21,0)</f>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64">
+        <f t="shared" ref="E20:H20" si="29">IFERROR(E19/E21,0)</f>
         <v>8.370977174569609E-2</v>
       </c>
-      <c r="F20" s="67">
-        <f t="shared" si="24"/>
+      <c r="F20" s="65">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="G20" s="66">
-        <f t="shared" si="24"/>
+      <c r="G20" s="64">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H20" s="66">
-        <f t="shared" si="24"/>
+      <c r="H20" s="64">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I20" s="66">
-        <f t="shared" ref="I20" si="25">IFERROR(I19/I21,0)</f>
+      <c r="I20" s="64">
+        <f t="shared" ref="I20" si="30">IFERROR(I19/I21,0)</f>
         <v>0.19613860632822938</v>
       </c>
-      <c r="J20" s="67">
-        <f t="shared" ref="J20:Q20" si="26">IFERROR(J19/J21,0)</f>
+      <c r="J20" s="65">
+        <f t="shared" ref="J20:Q20" si="31">IFERROR(J19/J21,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="66">
-        <f t="shared" si="26"/>
+      <c r="K20" s="64">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L20" s="66">
-        <f t="shared" si="26"/>
+      <c r="L20" s="64">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M20" s="66">
-        <f t="shared" si="26"/>
+      <c r="M20" s="64">
+        <f t="shared" si="31"/>
         <v>-0.2801483195516361</v>
       </c>
-      <c r="N20" s="67">
-        <f t="shared" si="26"/>
+      <c r="N20" s="65">
+        <f t="shared" si="31"/>
         <v>0.29461085492936051</v>
       </c>
-      <c r="O20" s="66">
-        <f t="shared" si="26"/>
+      <c r="O20" s="64">
+        <f t="shared" si="31"/>
         <v>0.2770366438055461</v>
       </c>
-      <c r="P20" s="66">
-        <f t="shared" si="26"/>
+      <c r="P20" s="64">
+        <f t="shared" si="31"/>
         <v>0.30704059960151264</v>
       </c>
-      <c r="Q20" s="66">
-        <f t="shared" si="26"/>
+      <c r="Q20" s="64">
+        <f t="shared" si="31"/>
         <v>0.31053013399319745</v>
       </c>
-      <c r="R20" s="67">
-        <f t="shared" ref="R20" si="27">IFERROR(R19/R21,0)</f>
+      <c r="R20" s="65">
+        <f t="shared" ref="R20" si="32">IFERROR(R19/R21,0)</f>
         <v>0.26440327318419987</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="64">
+        <f t="shared" ref="S20:T20" si="33">IFERROR(S19/S21,0)</f>
+        <v>0.2814797878754946</v>
+      </c>
+      <c r="T20" s="64">
+        <f t="shared" si="33"/>
+        <v>0.33760571250615107</v>
+      </c>
+      <c r="U20" s="64">
+        <f t="shared" ref="U20" si="34">IFERROR(U19/U21,0)</f>
+        <v>0.3926127869842414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -6746,47 +6950,69 @@
       <c r="R21" s="56">
         <v>3350.941875</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
+      <c r="S21" s="7">
+        <v>3350.1517359999998</v>
+      </c>
+      <c r="T21" s="29">
+        <v>3361.9099379999998</v>
+      </c>
+      <c r="U21" s="7">
+        <f>T21</f>
+        <v>3361.9099379999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29">
         <v>1610.1884110000001</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="28">
         <f>N21/2</f>
         <v>1673.3938745</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="29">
         <f>O21/2</f>
         <v>1674.8686875000001</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="29">
         <f>P21/2</f>
         <v>1665.9034690000001</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="29">
         <f>Q21/2</f>
         <v>1674.555681</v>
       </c>
-      <c r="R22" s="58">
+      <c r="R22" s="28">
         <f>R21/2</f>
         <v>1675.4709375</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S22" s="29">
+        <f>S21/2</f>
+        <v>1675.0758679999999</v>
+      </c>
+      <c r="T22" s="29">
+        <f>T21/2</f>
+        <v>1680.9549689999999</v>
+      </c>
+      <c r="U22" s="29">
+        <f>U21/2</f>
+        <v>1680.9549689999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -6799,7 +7025,7 @@
       <c r="M23" s="29"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6807,63 +7033,75 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="38">
-        <f>IFERROR(E11/E9,0)</f>
+        <f t="shared" ref="E24:R24" si="35">IFERROR(E11/E9,0)</f>
         <v>0.34182908545727136</v>
       </c>
       <c r="F24" s="39">
-        <f>IFERROR(F11/F9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.32256532066508314</v>
       </c>
       <c r="G24" s="38">
-        <f>IFERROR(G11/G9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.29537815126050421</v>
       </c>
       <c r="H24" s="38">
-        <f>IFERROR(H11/H9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.35532646048109967</v>
       </c>
       <c r="I24" s="38">
-        <f>IFERROR(I11/I9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.38873396542108196</v>
       </c>
       <c r="J24" s="39">
-        <f>IFERROR(J11/J9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.40889212827988336</v>
       </c>
       <c r="K24" s="38">
-        <f>IFERROR(K11/K9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.39862314012880301</v>
       </c>
       <c r="L24" s="38">
-        <f>IFERROR(L11/L9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.39504930569531094</v>
       </c>
       <c r="M24" s="38">
-        <f>IFERROR(M11/M9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.34018899388549195</v>
       </c>
       <c r="N24" s="39">
-        <f>IFERROR(N11/N9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.35442817294281731</v>
       </c>
       <c r="O24" s="38">
-        <f>IFERROR(O11/O9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.32909460834181076</v>
       </c>
       <c r="P24" s="38">
-        <f>IFERROR(P11/P9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.33978792070078379</v>
       </c>
       <c r="Q24" s="38">
-        <f>IFERROR(Q11/Q9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.34114904703139998</v>
       </c>
       <c r="R24" s="39">
-        <f>IFERROR(R11/R9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.31326255743939152</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S24" s="38">
+        <f t="shared" ref="S24:T24" si="36">IFERROR(S11/S9,0)</f>
+        <v>0.31304096941719561</v>
+      </c>
+      <c r="T24" s="38">
+        <f t="shared" si="36"/>
+        <v>0.32448844884488448</v>
+      </c>
+      <c r="U24" s="38">
+        <f t="shared" ref="U24" si="37">IFERROR(U11/U9,0)</f>
+        <v>0.32448844884488448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -6871,63 +7109,75 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="40">
-        <f>IFERROR(E15/E9,0)</f>
+        <f t="shared" ref="E25:R25" si="38">IFERROR(E15/E9,0)</f>
         <v>9.6951524237881059E-2</v>
       </c>
       <c r="F25" s="41">
-        <f>IFERROR(F15/F9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.10593824228028503</v>
       </c>
       <c r="G25" s="40">
-        <f>IFERROR(G15/G9,0)</f>
+        <f t="shared" si="38"/>
         <v>7.5210084033613442E-2</v>
       </c>
       <c r="H25" s="40">
-        <f>IFERROR(H15/H9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.14948453608247422</v>
       </c>
       <c r="I25" s="40">
-        <f>IFERROR(I15/I9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.15030674846625766</v>
       </c>
       <c r="J25" s="41">
-        <f>IFERROR(J15/J9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.21209912536443148</v>
       </c>
       <c r="K25" s="40">
-        <f>IFERROR(K15/K9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.21363535420830557</v>
       </c>
       <c r="L25" s="40">
-        <f>IFERROR(L15/L9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.19843026765948882</v>
       </c>
       <c r="M25" s="40">
-        <f>IFERROR(M15/M9,0)</f>
+        <f t="shared" si="38"/>
         <v>8.9679451547155828E-2</v>
       </c>
       <c r="N25" s="41">
-        <f>IFERROR(N15/N9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.17329149232914923</v>
       </c>
       <c r="O25" s="40">
-        <f>IFERROR(O15/O9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.15106815869786369</v>
       </c>
       <c r="P25" s="40">
-        <f>IFERROR(P15/P9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.14968495466420778</v>
       </c>
       <c r="Q25" s="40">
-        <f>IFERROR(Q15/Q9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.14671602906897024</v>
       </c>
       <c r="R25" s="41">
-        <f>IFERROR(R15/R9,0)</f>
+        <f t="shared" si="38"/>
         <v>0.12913959752812548</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S25" s="40">
+        <f t="shared" ref="S25:T25" si="39">IFERROR(S15/S9,0)</f>
+        <v>0.12507212925562608</v>
+      </c>
+      <c r="T25" s="40">
+        <f t="shared" si="39"/>
+        <v>0.13544554455445545</v>
+      </c>
+      <c r="U25" s="40">
+        <f t="shared" ref="U25" si="40">IFERROR(U15/U9,0)</f>
+        <v>0.13807155401144383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6935,63 +7185,75 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="40">
-        <f t="shared" ref="E26:M26" si="28">IFERROR(E18/E17,0)</f>
+        <f t="shared" ref="E26:M26" si="41">IFERROR(E18/E17,0)</f>
         <v>0.20499999999999999</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.1752988047808765</v>
       </c>
       <c r="G26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.17180616740088106</v>
       </c>
       <c r="H26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.17372881355932204</v>
       </c>
       <c r="I26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.17465224111282843</v>
       </c>
       <c r="J26" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>9.1891891891891897E-2</v>
       </c>
       <c r="K26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>9.5190380761523044E-2</v>
       </c>
       <c r="L26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>8.1029551954242135E-2</v>
       </c>
       <c r="M26" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>9.6907216494845363E-2</v>
       </c>
       <c r="N26" s="41">
-        <f t="shared" ref="N26" si="29">IFERROR(N18/N17,0)</f>
+        <f t="shared" ref="N26" si="42">IFERROR(N18/N17,0)</f>
         <v>0.12355555555555556</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" ref="O26" si="30">IFERROR(O18/O17,0)</f>
+        <f t="shared" ref="O26" si="43">IFERROR(O18/O17,0)</f>
         <v>0.12452830188679245</v>
       </c>
       <c r="P26" s="40">
-        <f t="shared" ref="P26" si="31">IFERROR(P18/P17,0)</f>
+        <f t="shared" ref="P26" si="44">IFERROR(P18/P17,0)</f>
         <v>0.12414383561643835</v>
       </c>
       <c r="Q26" s="40">
-        <f t="shared" ref="Q26:R26" si="32">IFERROR(Q18/Q17,0)</f>
+        <f t="shared" ref="Q26:R26" si="45">IFERROR(Q18/Q17,0)</f>
         <v>0.12384161752316765</v>
       </c>
       <c r="R26" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0.12795275590551181</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S26" s="40">
+        <f t="shared" ref="S26:T26" si="46">IFERROR(S18/S17,0)</f>
+        <v>0.12846580406654343</v>
+      </c>
+      <c r="T26" s="40">
+        <f t="shared" si="46"/>
+        <v>9.2725819344524382E-2</v>
+      </c>
+      <c r="U26" s="40">
+        <f t="shared" ref="U26" si="47">IFERROR(U18/U17,0)</f>
+        <v>9.2725819344524382E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -7003,8 +7265,11 @@
       <c r="M27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="28"/>
-    </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>17</v>
       </c>
@@ -7016,47 +7281,59 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34">
-        <f>IFERROR((I9/E9)-1,0)</f>
+        <f t="shared" ref="I28:U28" si="48">IFERROR((I9/E9)-1,0)</f>
         <v>0.79210394802598705</v>
       </c>
       <c r="J28" s="35">
-        <f>IFERROR((J9/F9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.95534441805225656</v>
       </c>
       <c r="K28" s="34">
-        <f>IFERROR((K9/G9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.89201680672268902</v>
       </c>
       <c r="L28" s="34">
-        <f>IFERROR((L9/H9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.7075601374570446</v>
       </c>
       <c r="M28" s="34">
-        <f>IFERROR((M9/I9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.50501952035694364</v>
       </c>
       <c r="N28" s="35">
-        <f>IFERROR((N9/J9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.39358600583090375</v>
       </c>
       <c r="O28" s="34">
-        <f>IFERROR((O9/K9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.30979347101932042</v>
       </c>
       <c r="P28" s="34">
-        <f>IFERROR((P9/L9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.30951901791104852</v>
       </c>
       <c r="Q28" s="34">
-        <f>IFERROR((Q9/M9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.35130628126737085</v>
       </c>
       <c r="R28" s="35">
-        <f>IFERROR((R9/N9)-1,0)</f>
+        <f t="shared" si="48"/>
         <v>0.10024407252440715</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S28" s="34">
+        <f t="shared" si="48"/>
+        <v>0.17531366564937256</v>
+      </c>
+      <c r="T28" s="34">
+        <f t="shared" si="48"/>
+        <v>0.16413093591516836</v>
+      </c>
+      <c r="U28" s="34">
+        <f t="shared" si="48"/>
+        <v>0.22133364006236045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -7067,18 +7344,60 @@
       <c r="F29" s="37"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
-    </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="36">
+        <f>I12/E12-1</f>
+        <v>1.1829268292682928</v>
+      </c>
+      <c r="J29" s="37">
+        <f>J12/F12-1</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K29" s="36">
+        <f>K12/G12-1</f>
+        <v>1.2261904761904763</v>
+      </c>
+      <c r="L29" s="36">
+        <f>L12/H12-1</f>
+        <v>0.68871595330739299</v>
+      </c>
+      <c r="M29" s="36">
+        <f>M12/I12-1</f>
+        <v>0.51396648044692728</v>
+      </c>
+      <c r="N29" s="37">
+        <f>N12/J12-1</f>
+        <v>0.2005494505494505</v>
+      </c>
+      <c r="O29" s="36">
+        <f>O12/K12-1</f>
+        <v>0.11229946524064172</v>
+      </c>
+      <c r="P29" s="36">
+        <f>P12/L12-1</f>
+        <v>0.1912442396313363</v>
+      </c>
+      <c r="Q29" s="36">
+        <f>Q12/M12-1</f>
+        <v>0.23800738007380073</v>
+      </c>
+      <c r="R29" s="37">
+        <f>R12/N12-1</f>
+        <v>0.10068649885583514</v>
+      </c>
+      <c r="S29" s="36">
+        <f>S12/O12-1</f>
+        <v>0.39182692307692313</v>
+      </c>
+      <c r="T29" s="36">
+        <f>T12/P12-1</f>
+        <v>0.24177949709864599</v>
+      </c>
+      <c r="U29" s="36">
+        <f>U12/Q12-1</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -7090,224 +7409,236 @@
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36">
-        <f t="shared" ref="I30:R31" si="33">I12/E12-1</f>
-        <v>1.1829268292682928</v>
+        <f>I13/E13-1</f>
+        <v>0.52453987730061358</v>
       </c>
       <c r="J30" s="37">
-        <f t="shared" si="33"/>
-        <v>1.7999999999999998</v>
+        <f>J13/F13-1</f>
+        <v>0.36809815950920255</v>
       </c>
       <c r="K30" s="36">
-        <f t="shared" si="33"/>
-        <v>1.2261904761904763</v>
+        <f>K13/G13-1</f>
+        <v>0.2893258426966292</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" si="33"/>
-        <v>0.68871595330739299</v>
+        <f>L13/H13-1</f>
+        <v>0.58771929824561409</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="33"/>
-        <v>0.51396648044692728</v>
+        <f>M13/I13-1</f>
+        <v>0.62977867203219318</v>
       </c>
       <c r="N30" s="37">
-        <f t="shared" si="33"/>
-        <v>0.2005494505494505</v>
+        <f>N13/J13-1</f>
+        <v>0.34977578475336313</v>
       </c>
       <c r="O30" s="36">
-        <f t="shared" si="33"/>
-        <v>0.11229946524064172</v>
+        <f>O13/K13-1</f>
+        <v>0.38126361655773411</v>
       </c>
       <c r="P30" s="36">
-        <f t="shared" si="33"/>
-        <v>0.1912442396313363</v>
+        <f>P13/L13-1</f>
+        <v>0.32596685082872923</v>
       </c>
       <c r="Q30" s="36">
-        <f t="shared" si="33"/>
-        <v>0.23800738007380073</v>
+        <f>Q13/M13-1</f>
+        <v>-7.7777777777777724E-2</v>
       </c>
       <c r="R30" s="37">
-        <f t="shared" si="33"/>
-        <v>0.10068649885583514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.52453987730061358</v>
-      </c>
-      <c r="J31" s="37">
-        <f t="shared" si="33"/>
-        <v>0.36809815950920255</v>
-      </c>
-      <c r="K31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.2893258426966292</v>
-      </c>
-      <c r="L31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.58771929824561409</v>
-      </c>
-      <c r="M31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.62977867203219318</v>
-      </c>
-      <c r="N31" s="37">
-        <f t="shared" si="33"/>
-        <v>0.34977578475336313</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.38126361655773411</v>
-      </c>
-      <c r="P31" s="36">
-        <f t="shared" si="33"/>
-        <v>0.32596685082872923</v>
-      </c>
-      <c r="Q31" s="36">
-        <f t="shared" si="33"/>
-        <v>-7.7777777777777724E-2</v>
-      </c>
-      <c r="R31" s="37">
-        <f t="shared" si="33"/>
+        <f>R13/N13-1</f>
         <v>0.13122923588039859</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+      <c r="S30" s="36">
+        <f>S13/O13-1</f>
+        <v>0.14195583596214512</v>
+      </c>
+      <c r="T30" s="36">
+        <f>T13/P13-1</f>
+        <v>9.7222222222222321E-2</v>
+      </c>
+      <c r="U30" s="36">
+        <f>U13/Q13-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="30">
-        <f t="shared" ref="E33" si="34">E34-E35</f>
+      <c r="B32" s="47"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="30">
+        <f t="shared" ref="E32" si="49">E33-E34</f>
         <v>3634</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="30">
-        <f t="shared" ref="I33" si="35">I34-I35</f>
+      <c r="F32" s="47"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="30">
+        <f t="shared" ref="I32" si="50">I33-I34</f>
         <v>9292</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="30">
-        <f t="shared" ref="M33" si="36">M34-M35</f>
+      <c r="J32" s="47"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="30">
+        <f t="shared" ref="M32" si="51">M33-M34</f>
         <v>21221</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="30">
-        <f t="shared" ref="Q33:R33" si="37">Q34-Q35</f>
+      <c r="N32" s="47"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="30">
+        <f t="shared" ref="Q32:T32" si="52">Q33-Q34</f>
         <v>23187</v>
       </c>
-      <c r="R33" s="31">
-        <f t="shared" si="37"/>
+      <c r="R32" s="31">
+        <f t="shared" si="52"/>
         <v>24365</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T32" s="30">
+        <f t="shared" si="52"/>
+        <v>30438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29">
+        <f>292+10+261+3071</f>
+        <v>3634</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29">
+        <f>378+3740+5174</f>
+        <v>9292</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29">
+        <f>17356+42+39+217+3331+236</f>
+        <v>21221</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29">
+        <f>15426+7000+6+38+500+217</f>
+        <v>23187</v>
+      </c>
+      <c r="R33" s="56">
+        <f>12266+8626+10+1010+2236+217</f>
+        <v>24365</v>
+      </c>
+      <c r="T33" s="7">
+        <f>2964+9641+15127+4+37+217+7847</f>
+        <v>35837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29">
-        <f>292+10+261+3071</f>
-        <v>3634</v>
+        <v>0</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29">
-        <f>378+3740+5174</f>
-        <v>9292</v>
+        <v>0</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29">
-        <f>17356+42+39+217+3331+236</f>
-        <v>21221</v>
+        <v>0</v>
       </c>
       <c r="N34" s="28"/>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29">
-        <f>15426+7000+6+38+500+217</f>
-        <v>23187</v>
+        <v>0</v>
       </c>
       <c r="R34" s="56">
-        <f>12266+8626+10+1010+2236+217</f>
-        <v>24365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="29">
-        <v>0</v>
-      </c>
+      <c r="E35" s="29"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="29">
-        <v>0</v>
-      </c>
+      <c r="I35" s="29"/>
       <c r="J35" s="28"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
-      <c r="M35" s="29">
-        <v>0</v>
-      </c>
+      <c r="M35" s="29"/>
       <c r="N35" s="28"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
-      <c r="Q35" s="29">
-        <v>0</v>
-      </c>
-      <c r="R35" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="29"/>
+      <c r="R35" s="56"/>
+    </row>
+    <row r="36" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="42">
+        <f>2007+15762</f>
+        <v>17769</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="42">
+        <f>1717+16262</f>
+        <v>17979</v>
+      </c>
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
+      <c r="M36" s="42">
+        <f>1763+17088</f>
+        <v>18851</v>
+      </c>
       <c r="N36" s="28"/>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="56"/>
-    </row>
-    <row r="37" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="42">
+        <f>17140+1622</f>
+        <v>18762</v>
+      </c>
+      <c r="R36" s="56">
+        <f>1615+17140</f>
+        <v>18755</v>
+      </c>
+      <c r="T36" s="7">
+        <f>1912+17150</f>
+        <v>19062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="45" t="s">
         <v>62</v>
       </c>
@@ -7315,36 +7646,34 @@
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="42">
-        <f>2007+15762</f>
-        <v>17769</v>
+        <v>23535</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="42">
-        <f>1717+16262</f>
-        <v>17979</v>
+        <v>30000</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="42">
-        <f>1763+17088</f>
-        <v>18851</v>
+        <v>44605</v>
       </c>
       <c r="N37" s="28"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="42">
-        <f>17140+1622</f>
-        <v>18762</v>
+        <v>52678</v>
       </c>
       <c r="R37" s="56">
-        <f>1615+17140</f>
-        <v>18755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>52456</v>
+      </c>
+      <c r="T37" s="7">
+        <v>64069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="45" t="s">
         <v>63</v>
       </c>
@@ -7352,82 +7681,94 @@
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="42">
-        <v>23535</v>
+        <v>2901</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="42">
-        <v>30000</v>
+        <v>3852</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="42">
-        <v>44605</v>
+        <v>6833</v>
       </c>
       <c r="N38" s="28"/>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="42">
-        <v>52678</v>
+        <v>9000</v>
       </c>
       <c r="R38" s="56">
-        <v>52456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="45" t="s">
-        <v>64</v>
-      </c>
+        <v>8502</v>
+      </c>
+      <c r="T38" s="7">
+        <v>14624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="42">
-        <v>2901</v>
-      </c>
+      <c r="E39" s="42"/>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="42">
-        <v>3852</v>
-      </c>
+      <c r="I39" s="42"/>
       <c r="J39" s="28"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
-      <c r="M39" s="42">
-        <v>6833</v>
-      </c>
+      <c r="M39" s="42"/>
       <c r="N39" s="28"/>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
-      <c r="Q39" s="42">
-        <v>9000</v>
-      </c>
-      <c r="R39" s="56">
-        <v>8502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="42"/>
+      <c r="R39" s="56"/>
+    </row>
+    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="32">
+        <f>E37-E33-E36</f>
+        <v>2132</v>
+      </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="42"/>
+      <c r="I40" s="32">
+        <f t="shared" ref="I40" si="53">I37-I33-I36</f>
+        <v>2729</v>
+      </c>
       <c r="J40" s="28"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="42"/>
+      <c r="M40" s="32">
+        <f t="shared" ref="M40" si="54">M37-M33-M36</f>
+        <v>4533</v>
+      </c>
       <c r="N40" s="28"/>
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="56"/>
-    </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="32">
+        <f t="shared" ref="Q40:R40" si="55">Q37-Q33-Q36</f>
+        <v>10729</v>
+      </c>
+      <c r="R40" s="33">
+        <f t="shared" si="55"/>
+        <v>9336</v>
+      </c>
+      <c r="T40" s="32">
+        <f t="shared" ref="T40" si="56">T37-T33-T36</f>
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="45" t="s">
         <v>65</v>
       </c>
@@ -7435,648 +7776,703 @@
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="32">
-        <f>E38-E34-E37</f>
-        <v>2132</v>
+        <f>E37-E38</f>
+        <v>20634</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="32">
-        <f t="shared" ref="I41" si="38">I38-I34-I37</f>
-        <v>2729</v>
+        <f t="shared" ref="I41" si="57">I37-I38</f>
+        <v>26148</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="32">
-        <f t="shared" ref="M41" si="39">M38-M34-M37</f>
-        <v>4533</v>
+        <f t="shared" ref="M41" si="58">M37-M38</f>
+        <v>37772</v>
       </c>
       <c r="N41" s="28"/>
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="32">
-        <f t="shared" ref="Q41:R41" si="40">Q38-Q34-Q37</f>
-        <v>10729</v>
+        <f t="shared" ref="Q41:R41" si="59">Q37-Q38</f>
+        <v>43678</v>
       </c>
       <c r="R41" s="33">
-        <f t="shared" si="40"/>
-        <v>9336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="45" t="s">
-        <v>66</v>
-      </c>
+        <f t="shared" si="59"/>
+        <v>43954</v>
+      </c>
+      <c r="T41" s="32">
+        <f t="shared" ref="T41" si="60">T37-T38</f>
+        <v>49445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="32">
-        <f>E38-E39</f>
-        <v>20634</v>
-      </c>
+      <c r="E42" s="42"/>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="32">
-        <f t="shared" ref="I42" si="41">I38-I39</f>
-        <v>26148</v>
-      </c>
+      <c r="I42" s="42"/>
       <c r="J42" s="28"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
-      <c r="M42" s="32">
-        <f t="shared" ref="M42" si="42">M38-M39</f>
-        <v>37772</v>
-      </c>
+      <c r="M42" s="42"/>
       <c r="N42" s="28"/>
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
-      <c r="Q42" s="32">
-        <f t="shared" ref="Q42:R42" si="43">Q38-Q39</f>
-        <v>43678</v>
-      </c>
-      <c r="R42" s="33">
-        <f t="shared" si="43"/>
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="42"/>
+      <c r="R42" s="56"/>
+    </row>
+    <row r="43" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="42"/>
+      <c r="E43" s="30">
+        <f>SUM(B19:E19)</f>
+        <v>159</v>
+      </c>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="42"/>
+      <c r="I43" s="30">
+        <f>SUM(F19:I19)</f>
+        <v>1319</v>
+      </c>
+      <c r="J43" s="31">
+        <f>SUM(G19:J19)</f>
+        <v>1952</v>
+      </c>
+      <c r="K43" s="30">
+        <f>SUM(H19:K19)</f>
+        <v>2667</v>
+      </c>
+      <c r="L43" s="30">
+        <f>SUM(I19:L19)</f>
+        <v>3241</v>
+      </c>
+      <c r="M43" s="30">
+        <f>SUM(J19:M19)</f>
+        <v>1831</v>
+      </c>
       <c r="N43" s="28"/>
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="56"/>
-    </row>
-    <row r="44" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43" t="s">
+      <c r="Q43" s="30">
+        <f>SUM(N19:Q19)</f>
+        <v>3977</v>
+      </c>
+      <c r="R43" s="31">
+        <f>SUM(O19:R19)</f>
+        <v>3877</v>
+      </c>
+      <c r="T43" s="30">
+        <f>SUM(Q19:T19)</f>
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30">
-        <f t="shared" ref="E44" si="44">SUM(B19:E19)</f>
-        <v>159</v>
-      </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30">
-        <f t="shared" ref="I44:N44" si="45">SUM(F19:I19)</f>
-        <v>1319</v>
-      </c>
-      <c r="J44" s="31">
-        <f t="shared" si="45"/>
-        <v>1952</v>
-      </c>
-      <c r="K44" s="30">
-        <f>SUM(H19:K19)</f>
-        <v>2667</v>
-      </c>
-      <c r="L44" s="30">
-        <f>SUM(I19:L19)</f>
-        <v>3241</v>
-      </c>
-      <c r="M44" s="30">
-        <f t="shared" si="45"/>
-        <v>1831</v>
-      </c>
-      <c r="N44" s="31">
-        <f t="shared" si="45"/>
-        <v>1977</v>
-      </c>
-      <c r="O44" s="30">
-        <f>SUM(L19:O19)</f>
-        <v>2002</v>
-      </c>
-      <c r="P44" s="30">
-        <f>SUM(M19:P19)</f>
-        <v>2061</v>
-      </c>
-      <c r="Q44" s="30">
-        <f t="shared" ref="Q44:R44" si="46">SUM(N19:Q19)</f>
-        <v>3977</v>
-      </c>
-      <c r="R44" s="31">
-        <f t="shared" si="46"/>
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E44" s="38">
+        <f t="shared" ref="E44" si="61">E43/E41</f>
+        <v>7.7057284094213434E-3</v>
+      </c>
+      <c r="I44" s="38">
+        <f t="shared" ref="I44" si="62">I43/I41</f>
+        <v>5.0443628575799294E-2</v>
+      </c>
+      <c r="J44" s="39"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38">
+        <f t="shared" ref="M44" si="63">M43/M41</f>
+        <v>4.8475060891665783E-2</v>
+      </c>
+      <c r="N44" s="39"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38">
+        <f t="shared" ref="Q44:R44" si="64">Q43/Q41</f>
+        <v>9.1052703878382713E-2</v>
+      </c>
+      <c r="R44" s="39">
+        <f t="shared" si="64"/>
+        <v>8.8205851572098107E-2</v>
+      </c>
+      <c r="T44" s="38">
+        <f t="shared" ref="T44" si="65">T43/T41</f>
+        <v>8.097886540600667E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="38">
-        <f t="shared" ref="E45" si="47">E44/E42</f>
-        <v>7.7057284094213434E-3</v>
+        <f t="shared" ref="E45" si="66">E43/E37</f>
+        <v>6.7558954748247295E-3</v>
       </c>
       <c r="I45" s="38">
-        <f t="shared" ref="I45" si="48">I44/I42</f>
-        <v>5.0443628575799294E-2</v>
+        <f t="shared" ref="I45" si="67">I43/I37</f>
+        <v>4.3966666666666668E-2</v>
       </c>
       <c r="J45" s="39"/>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38">
-        <f t="shared" ref="M45" si="49">M44/M42</f>
-        <v>4.8475060891665783E-2</v>
+        <f t="shared" ref="M45" si="68">M43/M37</f>
+        <v>4.1049209729850912E-2</v>
       </c>
       <c r="N45" s="39"/>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="38">
-        <f t="shared" ref="Q45:R45" si="50">Q44/Q42</f>
-        <v>9.1052703878382713E-2</v>
+        <f t="shared" ref="Q45:R45" si="69">Q43/Q37</f>
+        <v>7.5496412164470936E-2</v>
       </c>
       <c r="R45" s="39">
-        <f t="shared" si="50"/>
-        <v>8.8205851572098107E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="69"/>
+        <v>7.390956229983224E-2</v>
+      </c>
+      <c r="T45" s="38">
+        <f t="shared" ref="T45" si="70">T43/T37</f>
+        <v>6.2495122446112786E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="38">
-        <f t="shared" ref="E46" si="51">E44/E38</f>
-        <v>6.7558954748247295E-3</v>
+        <f t="shared" ref="E46" si="71">E43/(E41-E36)</f>
+        <v>5.549738219895288E-2</v>
       </c>
       <c r="I46" s="38">
-        <f t="shared" ref="I46" si="52">I44/I38</f>
-        <v>4.3966666666666668E-2</v>
+        <f t="shared" ref="I46" si="72">I43/(I41-I36)</f>
+        <v>0.16146407148977843</v>
       </c>
       <c r="J46" s="39"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38">
-        <f t="shared" ref="M46" si="53">M44/M38</f>
-        <v>4.1049209729850912E-2</v>
+        <f t="shared" ref="M46" si="73">M43/(M41-M36)</f>
+        <v>9.67707837852122E-2</v>
       </c>
       <c r="N46" s="39"/>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="38">
-        <f t="shared" ref="Q46:R46" si="54">Q44/Q38</f>
-        <v>7.5496412164470936E-2</v>
+        <f t="shared" ref="Q46:R46" si="74">Q43/(Q41-Q36)</f>
+        <v>0.15961631080430247</v>
       </c>
       <c r="R46" s="39">
-        <f t="shared" si="54"/>
-        <v>7.390956229983224E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="74"/>
+        <v>0.153855311718719</v>
+      </c>
+      <c r="T46" s="38">
+        <f t="shared" ref="T46" si="75">T43/(T41-T36)</f>
+        <v>0.13178422143962085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E47" s="38">
-        <f t="shared" ref="E47" si="55">E44/(E42-E37)</f>
-        <v>5.549738219895288E-2</v>
+        <f t="shared" ref="E47" si="76">E43/E40</f>
+        <v>7.4577861163227011E-2</v>
       </c>
       <c r="I47" s="38">
-        <f t="shared" ref="I47" si="56">I44/(I42-I37)</f>
-        <v>0.16146407148977843</v>
+        <f t="shared" ref="I47" si="77">I43/I40</f>
+        <v>0.48332722609014289</v>
       </c>
       <c r="J47" s="39"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38">
-        <f t="shared" ref="M47" si="57">M44/(M42-M37)</f>
-        <v>9.67707837852122E-2</v>
+        <f t="shared" ref="M47" si="78">M43/M40</f>
+        <v>0.40392675932053829</v>
       </c>
       <c r="N47" s="39"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="38">
-        <f t="shared" ref="Q47:R47" si="58">Q44/(Q42-Q37)</f>
-        <v>0.15961631080430247</v>
+        <f t="shared" ref="Q47:R47" si="79">Q43/Q40</f>
+        <v>0.37067760275887779</v>
       </c>
       <c r="R47" s="39">
-        <f t="shared" si="58"/>
-        <v>0.153855311718719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="38">
-        <f t="shared" ref="E48" si="59">E44/E41</f>
-        <v>7.4577861163227011E-2</v>
-      </c>
-      <c r="I48" s="38">
-        <f t="shared" ref="I48" si="60">I44/I41</f>
-        <v>0.48332722609014289</v>
-      </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38">
-        <f t="shared" ref="M48" si="61">M44/M41</f>
-        <v>0.40392675932053829</v>
-      </c>
-      <c r="N48" s="39"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38">
-        <f t="shared" ref="Q48:R48" si="62">Q44/Q41</f>
-        <v>0.37067760275887779</v>
-      </c>
-      <c r="R48" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>0.41527420736932302</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T47" s="38">
+        <f t="shared" ref="T47" si="80">T43/T40</f>
+        <v>0.43664122137404582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="38">
+        <f>I3/E3-1</f>
+        <v>0.39919893190921218</v>
+      </c>
+      <c r="J49" s="39">
+        <f>J3/F3-1</f>
+        <v>0.74408901251738535</v>
+      </c>
+      <c r="K49" s="38">
+        <f>K3/G3-1</f>
+        <v>1.0139534883720929</v>
+      </c>
+      <c r="L49" s="38">
+        <f>L3/H3-1</f>
+        <v>0.9850746268656716</v>
+      </c>
+      <c r="M49" s="38">
+        <f>M3/I3-1</f>
+        <v>0.45038167938931295</v>
+      </c>
+      <c r="N49" s="39">
+        <f>N3/J3-1</f>
+        <v>0.27990430622009566</v>
+      </c>
+      <c r="O49" s="38">
+        <f>O3/K3-1</f>
+        <v>0.2024634334103157</v>
+      </c>
+      <c r="P49" s="38">
+        <f>P3/L3-1</f>
+        <v>0.26179084073820924</v>
+      </c>
+      <c r="Q49" s="38">
+        <f>Q3/M3-1</f>
+        <v>0.40723684210526323</v>
+      </c>
+      <c r="R49" s="39">
+        <f>R3/N3-1</f>
+        <v>0.2735202492211839</v>
+      </c>
+      <c r="S49" s="38">
+        <f>S3/O3-1</f>
+        <v>0.42189500640204858</v>
+      </c>
+      <c r="T49" s="38">
+        <f>T3/P3-1</f>
+        <v>0.25893824485373784</v>
+      </c>
+      <c r="U49" s="38"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I50" s="38">
-        <f>I3/E3-1</f>
-        <v>0.39919893190921218</v>
-      </c>
-      <c r="J50" s="39">
-        <f>J3/F3-1</f>
-        <v>0.74408901251738535</v>
-      </c>
-      <c r="K50" s="38">
-        <f>K3/G3-1</f>
-        <v>1.0139534883720929</v>
-      </c>
-      <c r="L50" s="38">
-        <f>L3/H3-1</f>
-        <v>0.9850746268656716</v>
-      </c>
-      <c r="M50" s="38">
-        <f>M3/I3-1</f>
-        <v>0.45038167938931295</v>
-      </c>
-      <c r="N50" s="39">
-        <f>N3/J3-1</f>
-        <v>0.27990430622009566</v>
-      </c>
-      <c r="O50" s="38">
-        <f>O3/K3-1</f>
-        <v>0.2024634334103157</v>
-      </c>
-      <c r="P50" s="38">
-        <f>P3/L3-1</f>
-        <v>0.26179084073820924</v>
-      </c>
-      <c r="Q50" s="38">
-        <f>Q3/M3-1</f>
-        <v>0.40723684210526323</v>
-      </c>
-      <c r="R50" s="39">
-        <f>R3/N3-1</f>
-        <v>0.2735202492211839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="38">
         <f>I4/E4-1</f>
         <v>1.0271565495207668</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J50" s="39">
         <f>J4/F4-1</f>
         <v>1.0649350649350651</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K50" s="38">
         <f>K4/G4-1</f>
         <v>0.846685878962536</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L50" s="38">
         <f>L4/H4-1</f>
         <v>0.61343764381040033</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M50" s="38">
         <f>M4/I4-1</f>
         <v>0.52758077226162325</v>
       </c>
-      <c r="N51" s="39">
+      <c r="N50" s="39">
         <f>N4/J4-1</f>
         <v>0.44339622641509435</v>
       </c>
-      <c r="O51" s="38">
+      <c r="O50" s="38">
         <f>O4/K4-1</f>
         <v>0.35330836454431958</v>
       </c>
-      <c r="P51" s="38">
+      <c r="P50" s="38">
         <f>P4/L4-1</f>
         <v>0.32943525385054184</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q50" s="38">
         <f>Q4/M4-1</f>
         <v>0.32937838534949693</v>
       </c>
-      <c r="R51" s="39">
+      <c r="R50" s="39">
         <f>R4/N4-1</f>
         <v>3.292181069958855E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R52" s="27"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S50" s="38">
+        <f>S4/O4-1</f>
+        <v>8.6485239852398532E-2</v>
+      </c>
+      <c r="T50" s="38">
+        <f>T4/P4-1</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="U50" s="38"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R51" s="27"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="I52" s="38">
+        <f>I6/E6-1</f>
+        <v>0.5649717514124295</v>
+      </c>
+      <c r="J52" s="39">
+        <f>J6/F6-1</f>
+        <v>0.48372093023255802</v>
+      </c>
+      <c r="K52" s="38">
+        <f>K6/G6-1</f>
+        <v>0.38396624472573815</v>
+      </c>
+      <c r="L52" s="38">
+        <f>L6/H6-1</f>
+        <v>0.32319391634980965</v>
+      </c>
+      <c r="M52" s="38">
+        <f>M6/I6-1</f>
+        <v>0.34296028880866447</v>
+      </c>
+      <c r="N52" s="39">
+        <f>N6/J6-1</f>
+        <v>0.22884012539184972</v>
+      </c>
+      <c r="O52" s="38">
+        <f>O6/K6-1</f>
+        <v>0.2835365853658538</v>
+      </c>
+      <c r="P52" s="38">
+        <f>P6/L6-1</f>
+        <v>0.36781609195402298</v>
+      </c>
+      <c r="Q52" s="38">
+        <f>Q6/M6-1</f>
+        <v>0.40591397849462352</v>
+      </c>
+      <c r="R52" s="39">
+        <f>R6/N6-1</f>
+        <v>0.41581632653061207</v>
+      </c>
+      <c r="S52" s="38">
+        <f>S6/O6-1</f>
+        <v>0.41567695961995255</v>
+      </c>
+      <c r="T52" s="38">
+        <f>T6/P6-1</f>
+        <v>0.30672268907563049</v>
+      </c>
+      <c r="U52" s="38">
+        <f>U6/Q6-1</f>
+        <v>0.31141873804971354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38"/>
       <c r="I53" s="38">
-        <f>I6/E6-1</f>
-        <v>0.5649717514124295</v>
-      </c>
-      <c r="J53" s="39">
-        <f>J6/F6-1</f>
-        <v>0.48372093023255802</v>
-      </c>
-      <c r="K53" s="38">
-        <f>K6/G6-1</f>
-        <v>0.38396624472573815</v>
-      </c>
-      <c r="L53" s="38">
-        <f>L6/H6-1</f>
-        <v>0.32319391634980965</v>
-      </c>
-      <c r="M53" s="38">
-        <f>M6/I6-1</f>
-        <v>0.34296028880866447</v>
-      </c>
-      <c r="N53" s="39">
-        <f>N6/J6-1</f>
-        <v>0.22884012539184972</v>
-      </c>
-      <c r="O53" s="38">
-        <f>O6/K6-1</f>
-        <v>0.2835365853658538</v>
-      </c>
-      <c r="P53" s="38">
-        <f>P6/L6-1</f>
-        <v>0.36781609195402298</v>
-      </c>
-      <c r="Q53" s="38">
-        <f>Q6/M6-1</f>
-        <v>0.40591397849462352</v>
-      </c>
-      <c r="R53" s="39">
-        <f>R6/N6-1</f>
-        <v>0.41581632653061207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="I54" s="38">
         <f>I7/E7-1</f>
         <v>0.14513501372057647</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J53" s="39">
         <f>J7/F7-1</f>
         <v>0.31786536012926381</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K53" s="38">
         <f>K7/G7-1</f>
         <v>0.36709750973560196</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L53" s="38">
         <f>L7/H7-1</f>
         <v>0.29048366710115747</v>
       </c>
-      <c r="M54" s="38">
+      <c r="M53" s="38">
         <f>M7/I7-1</f>
         <v>0.12067313747008979</v>
       </c>
-      <c r="N54" s="39">
+      <c r="N53" s="39">
         <f>N7/J7-1</f>
         <v>0.13406616290831175</v>
       </c>
-      <c r="O54" s="38">
+      <c r="O53" s="38">
         <f>O7/K7-1</f>
         <v>2.0456671007926364E-2</v>
       </c>
-      <c r="P54" s="38">
+      <c r="P53" s="38">
         <f>P7/L7-1</f>
         <v>-4.2620549930577956E-2</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q53" s="38">
         <f>Q7/M7-1</f>
         <v>-3.88414213547571E-2</v>
       </c>
-      <c r="R54" s="39">
+      <c r="R53" s="39">
         <f>R7/N7-1</f>
         <v>-0.22289067309987798</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="M55" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q55" s="49"/>
-    </row>
-    <row r="56" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29">
+      <c r="S53" s="38">
+        <f>S7/O7-1</f>
+        <v>-0.16978682342552709</v>
+      </c>
+      <c r="T53" s="38">
+        <f>T7/P7-1</f>
+        <v>-0.10912166319032157</v>
+      </c>
+      <c r="U53" s="38">
+        <f>U7/Q7-1</f>
+        <v>-6.8692855587319079E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="M54" s="49"/>
+      <c r="Q54" s="49"/>
+    </row>
+    <row r="55" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29">
         <f>589+151</f>
         <v>740</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F55" s="28">
         <f>607+180</f>
         <v>787</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G55" s="29">
         <f>606+200</f>
         <v>806</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H55" s="29">
         <f>609+214</f>
         <v>823</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I55" s="29">
         <f>603+209</f>
         <v>812</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J55" s="28">
         <f>625+224</f>
         <v>849</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K55" s="29">
         <f>644+228</f>
         <v>872</v>
       </c>
-      <c r="L56" s="29">
+      <c r="L55" s="29">
         <f>655+225</f>
         <v>880</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M55" s="29">
         <f>644+228</f>
         <v>872</v>
       </c>
-      <c r="N56" s="28">
+      <c r="N55" s="28">
         <f>654+225</f>
         <v>879</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O55" s="29">
         <f>652+239</f>
         <v>891</v>
       </c>
-      <c r="P56" s="29">
-        <f>661+242</f>
-        <v>903</v>
-      </c>
-      <c r="Q56" s="29">
+      <c r="P55" s="29">
+        <f>661+251</f>
+        <v>912</v>
+      </c>
+      <c r="Q55" s="29">
         <f>644+222</f>
         <v>866</v>
       </c>
-      <c r="R56" s="56">
+      <c r="R55" s="56">
         <f>657+256</f>
         <v>913</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38">
-        <f t="shared" ref="I57" si="63">I56/E56-1</f>
+      <c r="S55" s="7">
+        <f>651+236</f>
+        <v>887</v>
+      </c>
+      <c r="T55" s="7">
+        <f>646+235</f>
+        <v>881</v>
+      </c>
+      <c r="U55" s="7">
+        <f>Q55*0.99</f>
+        <v>857.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38">
+        <f t="shared" ref="I56" si="81">I55/E55-1</f>
         <v>9.7297297297297192E-2</v>
       </c>
-      <c r="J57" s="39">
-        <f t="shared" ref="J57:R57" si="64">J56/F56-1</f>
+      <c r="J56" s="39">
+        <f t="shared" ref="J56:U56" si="82">J55/F55-1</f>
         <v>7.8780177890724223E-2</v>
       </c>
-      <c r="K57" s="38">
-        <f t="shared" si="64"/>
+      <c r="K56" s="38">
+        <f t="shared" si="82"/>
         <v>8.1885856079404462E-2</v>
       </c>
-      <c r="L57" s="38">
-        <f t="shared" si="64"/>
+      <c r="L56" s="38">
+        <f t="shared" si="82"/>
         <v>6.925880923450789E-2</v>
       </c>
-      <c r="M57" s="38">
-        <f t="shared" si="64"/>
+      <c r="M56" s="38">
+        <f t="shared" si="82"/>
         <v>7.3891625615763568E-2</v>
       </c>
-      <c r="N57" s="39">
-        <f t="shared" si="64"/>
+      <c r="N56" s="39">
+        <f t="shared" si="82"/>
         <v>3.5335689045936425E-2</v>
       </c>
-      <c r="O57" s="38">
-        <f t="shared" si="64"/>
+      <c r="O56" s="38">
+        <f t="shared" si="82"/>
         <v>2.1788990825688082E-2</v>
       </c>
-      <c r="P57" s="38">
-        <f t="shared" si="64"/>
-        <v>2.6136363636363624E-2</v>
-      </c>
-      <c r="Q57" s="38">
-        <f t="shared" si="64"/>
+      <c r="P56" s="38">
+        <f t="shared" si="82"/>
+        <v>3.6363636363636376E-2</v>
+      </c>
+      <c r="Q56" s="38">
+        <f t="shared" si="82"/>
         <v>-6.8807339449541427E-3</v>
       </c>
-      <c r="R57" s="39">
-        <f t="shared" si="64"/>
+      <c r="R56" s="39">
+        <f t="shared" si="82"/>
         <v>3.868031854379983E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="M58" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q58" s="49"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="38">
-        <f>E6/E56</f>
+      <c r="S56" s="38">
+        <f t="shared" si="82"/>
+        <v>-4.4893378226711356E-3</v>
+      </c>
+      <c r="T56" s="38">
+        <f t="shared" si="82"/>
+        <v>-3.3991228070175405E-2</v>
+      </c>
+      <c r="U56" s="38">
+        <f t="shared" si="82"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="M57" s="49"/>
+      <c r="Q57" s="49"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="38">
+        <f>E6/E55</f>
         <v>2.3918918918918917E-2</v>
       </c>
-      <c r="F59" s="39">
-        <f>F6/F56</f>
+      <c r="F58" s="39">
+        <f>F6/F55</f>
         <v>2.7318932655654382E-2</v>
       </c>
-      <c r="G59" s="38">
-        <f>G6/G56</f>
+      <c r="G58" s="38">
+        <f>G6/G55</f>
         <v>2.9404466501240699E-2</v>
       </c>
-      <c r="H59" s="38">
-        <f>H6/H56</f>
+      <c r="H58" s="38">
+        <f>H6/H55</f>
         <v>3.1956257594167682E-2</v>
       </c>
-      <c r="I59" s="38">
-        <f>I6/I56</f>
+      <c r="I58" s="38">
+        <f>I6/I55</f>
         <v>3.4113300492610833E-2</v>
       </c>
-      <c r="J59" s="39">
-        <f>J6/J56</f>
+      <c r="J58" s="39">
+        <f>J6/J55</f>
         <v>3.75736160188457E-2</v>
       </c>
-      <c r="K59" s="38">
-        <f>K6/K56</f>
+      <c r="K58" s="38">
+        <f>K6/K55</f>
         <v>3.7614678899082564E-2</v>
       </c>
-      <c r="L59" s="38">
-        <f>L6/L56</f>
+      <c r="L58" s="38">
+        <f>L6/L55</f>
         <v>3.9545454545454543E-2</v>
       </c>
-      <c r="M59" s="38">
-        <f>M6/M56</f>
+      <c r="M58" s="38">
+        <f>M6/M55</f>
         <v>4.2660550458715599E-2</v>
       </c>
-      <c r="N59" s="39">
-        <f>N6/N56</f>
+      <c r="N58" s="39">
+        <f>N6/N55</f>
         <v>4.4596131968145623E-2</v>
       </c>
-      <c r="O59" s="38">
-        <f>O6/O56</f>
+      <c r="O58" s="38">
+        <f>O6/O55</f>
         <v>4.725028058361392E-2</v>
       </c>
-      <c r="P59" s="38">
-        <f>P6/P56</f>
-        <v>5.2713178294573636E-2</v>
-      </c>
-      <c r="Q59" s="38">
-        <f>Q6/Q56</f>
+      <c r="P58" s="38">
+        <f>P6/P55</f>
+        <v>5.2192982456140347E-2</v>
+      </c>
+      <c r="Q58" s="38">
+        <f>Q6/Q55</f>
         <v>6.0392609699769048E-2</v>
       </c>
-      <c r="R59" s="39">
-        <f>R6/R56</f>
+      <c r="R58" s="39">
+        <f>R6/R55</f>
         <v>6.0788608981380068E-2</v>
+      </c>
+      <c r="S58" s="38">
+        <f>S6/S55</f>
+        <v>6.7192784667418265E-2</v>
+      </c>
+      <c r="T58" s="38">
+        <f>T6/T55</f>
+        <v>7.0601589103291715E-2</v>
+      </c>
+      <c r="U58" s="38">
+        <f>U6/U55</f>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8107,51 +8503,51 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
